--- a/StructureDefinition-PPLRegulatedAuthorization.xlsx
+++ b/StructureDefinition-PPLRegulatedAuthorization.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2163" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2163" uniqueCount="368">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-23T18:15:07+00:00</t>
+    <t>2022-10-23T19:27:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -649,7 +649,7 @@
     <t>RegulatedAuthorization.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(MedicinalProductDefinition|BiologicallyDerivedProduct|NutritionProduct|PackagedProductDefinition|ManufacturedItemDefinition|Ingredient|SubstanceDefinition|DeviceDefinition|ResearchStudy|ActivityDefinition|PlanDefinition|ObservationDefinition|Practitioner|Organization|Location)
+    <t xml:space="preserve">Reference(http://unicom-project.eu/fhir/StructureDefinition/PPLMedicinalProductDefinition|http://unicom-project.eu/fhir/StructureDefinition/PPLPackagedProductDefinition)
 </t>
   </si>
   <si>
@@ -1010,6 +1010,10 @@
   </si>
   <si>
     <t>RegulatedAuthorization.holder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://unicom-project.eu/fhir/StructureDefinition/PPLOrganization)
+</t>
   </si>
   <si>
     <t>The organization that has been granted this authorization, by the regulator</t>
@@ -7018,13 +7022,13 @@
         <v>83</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>198</v>
+        <v>322</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -7090,7 +7094,7 @@
         <v>94</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>73</v>
@@ -7101,7 +7105,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7127,10 +7131,10 @@
         <v>198</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -7181,7 +7185,7 @@
         <v>73</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>74</v>
@@ -7196,7 +7200,7 @@
         <v>94</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>73</v>
@@ -7207,7 +7211,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7230,13 +7234,13 @@
         <v>83</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -7287,7 +7291,7 @@
         <v>73</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>74</v>
@@ -7313,7 +7317,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7336,13 +7340,13 @@
         <v>83</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -7393,7 +7397,7 @@
         <v>73</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>74</v>
@@ -7408,7 +7412,7 @@
         <v>94</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>73</v>
@@ -7419,7 +7423,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7525,7 +7529,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7633,11 +7637,11 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
@@ -7659,10 +7663,10 @@
         <v>128</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="M58" t="s" s="2">
         <v>131</v>
@@ -7717,7 +7721,7 @@
         <v>73</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>74</v>
@@ -7743,7 +7747,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -7769,10 +7773,10 @@
         <v>140</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -7823,7 +7827,7 @@
         <v>73</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>74</v>
@@ -7838,7 +7842,7 @@
         <v>94</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>73</v>
@@ -7849,7 +7853,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -7875,10 +7879,10 @@
         <v>166</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -7908,10 +7912,10 @@
         <v>213</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>73</v>
@@ -7929,7 +7933,7 @@
         <v>73</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>74</v>
@@ -7944,7 +7948,7 @@
         <v>94</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>73</v>
@@ -7955,7 +7959,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -7981,10 +7985,10 @@
         <v>166</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -8035,7 +8039,7 @@
         <v>73</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>74</v>
@@ -8061,7 +8065,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8084,13 +8088,13 @@
         <v>83</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -8141,7 +8145,7 @@
         <v>73</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>74</v>
@@ -8156,7 +8160,7 @@
         <v>94</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>73</v>
@@ -8167,7 +8171,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8193,10 +8197,10 @@
         <v>73</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -8247,7 +8251,7 @@
         <v>73</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>74</v>
@@ -8262,7 +8266,7 @@
         <v>94</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>73</v>

--- a/StructureDefinition-PPLRegulatedAuthorization.xlsx
+++ b/StructureDefinition-PPLRegulatedAuthorization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-23T19:27:30+00:00</t>
+    <t>2022-10-23T19:35:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLRegulatedAuthorization.xlsx
+++ b/StructureDefinition-PPLRegulatedAuthorization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-23T19:35:12+00:00</t>
+    <t>2022-10-23T20:13:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLRegulatedAuthorization.xlsx
+++ b/StructureDefinition-PPLRegulatedAuthorization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-23T20:13:34+00:00</t>
+    <t>2022-10-25T12:14:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLRegulatedAuthorization.xlsx
+++ b/StructureDefinition-PPLRegulatedAuthorization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-25T12:14:01+00:00</t>
+    <t>2022-10-25T13:47:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLRegulatedAuthorization.xlsx
+++ b/StructureDefinition-PPLRegulatedAuthorization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-25T13:47:24+00:00</t>
+    <t>2022-10-30T17:01:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLRegulatedAuthorization.xlsx
+++ b/StructureDefinition-PPLRegulatedAuthorization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-30T17:01:43+00:00</t>
+    <t>2022-10-30T18:15:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLRegulatedAuthorization.xlsx
+++ b/StructureDefinition-PPLRegulatedAuthorization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-30T18:15:34+00:00</t>
+    <t>2022-10-30T20:04:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLRegulatedAuthorization.xlsx
+++ b/StructureDefinition-PPLRegulatedAuthorization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-30T20:04:00+00:00</t>
+    <t>2022-10-30T21:50:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLRegulatedAuthorization.xlsx
+++ b/StructureDefinition-PPLRegulatedAuthorization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-30T21:50:47+00:00</t>
+    <t>2022-10-30T22:04:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLRegulatedAuthorization.xlsx
+++ b/StructureDefinition-PPLRegulatedAuthorization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-30T22:04:36+00:00</t>
+    <t>2022-10-30T22:13:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLRegulatedAuthorization.xlsx
+++ b/StructureDefinition-PPLRegulatedAuthorization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-30T22:13:17+00:00</t>
+    <t>2022-11-02T06:16:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLRegulatedAuthorization.xlsx
+++ b/StructureDefinition-PPLRegulatedAuthorization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-02T06:16:24+00:00</t>
+    <t>2022-11-02T20:48:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLRegulatedAuthorization.xlsx
+++ b/StructureDefinition-PPLRegulatedAuthorization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-02T20:48:31+00:00</t>
+    <t>2022-11-03T14:07:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLRegulatedAuthorization.xlsx
+++ b/StructureDefinition-PPLRegulatedAuthorization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-05T15:30:00+00:00</t>
+    <t>2022-11-05T15:35:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLRegulatedAuthorization.xlsx
+++ b/StructureDefinition-PPLRegulatedAuthorization.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2163" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2163" uniqueCount="369">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-05T15:35:25+00:00</t>
+    <t>2022-11-06T17:03:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -455,7 +455,7 @@
     <t>Marketing authorisation number</t>
   </si>
   <si>
-    <t>Business identifier for the authorization, typically assigned by the authorizing body.</t>
+    <t>EMA IG 2.2</t>
   </si>
   <si>
     <t>Marketing Authorisation.Marketing Authorisation Number</t>
@@ -763,7 +763,7 @@
     <t>Identity of the terminology system</t>
   </si>
   <si>
-    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
+    <t>EMA IG 2.3</t>
   </si>
   <si>
     <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should be an absolute reference to some definition that establishes the system clearly and unambiguously.</t>
@@ -887,7 +887,7 @@
     <t>Marketing authorisation status</t>
   </si>
   <si>
-    <t>The status that is authorised e.g. approved. Intermediate states and actions can be tracked with cases and applications.</t>
+    <t>EMA IG 2.4</t>
   </si>
   <si>
     <t>The lifecycle status of an artifact.</t>
@@ -915,6 +915,9 @@
   </si>
   <si>
     <t>RegulatedAuthorization.status.coding.system</t>
+  </si>
+  <si>
+    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
   </si>
   <si>
     <t>https://spor.ema.europa.eu/rmswi/#/lists/100000072049/terms</t>
@@ -945,7 +948,7 @@
     <t>Issue/changing date of the marketing authorisation</t>
   </si>
   <si>
-    <t>The date at which the current status was assigned.</t>
+    <t>EMA IG 2.5</t>
   </si>
   <si>
     <t>Marketing Authorisation.Authorisation Status Date</t>
@@ -1019,7 +1022,7 @@
     <t>The organization that has been granted this authorization, by the regulator</t>
   </si>
   <si>
-    <t>The organization that has been granted this authorization, by some authoritative body (the 'regulator').</t>
+    <t>EMA IG 2.8</t>
   </si>
   <si>
     <t>Marketing Authorisation.Marketing Authorisation Holder (Organisation)</t>
@@ -5844,7 +5847,7 @@
         <v>239</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>240</v>
+        <v>291</v>
       </c>
       <c r="M41" t="s" s="2">
         <v>241</v>
@@ -5860,7 +5863,7 @@
         <v>73</v>
       </c>
       <c r="R41" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S41" t="s" s="2">
         <v>73</v>
@@ -5925,7 +5928,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6033,7 +6036,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6141,7 +6144,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6249,7 +6252,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6359,7 +6362,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6469,7 +6472,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6492,13 +6495,13 @@
         <v>83</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -6549,7 +6552,7 @@
         <v>73</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>74</v>
@@ -6564,7 +6567,7 @@
         <v>94</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>73</v>
@@ -6575,7 +6578,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6601,10 +6604,10 @@
         <v>192</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -6655,7 +6658,7 @@
         <v>73</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>74</v>
@@ -6670,7 +6673,7 @@
         <v>94</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>73</v>
@@ -6681,7 +6684,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6704,13 +6707,13 @@
         <v>83</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -6761,7 +6764,7 @@
         <v>73</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>74</v>
@@ -6787,7 +6790,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6813,10 +6816,10 @@
         <v>166</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -6846,10 +6849,10 @@
         <v>106</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>73</v>
@@ -6867,7 +6870,7 @@
         <v>73</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>74</v>
@@ -6893,7 +6896,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -6919,10 +6922,10 @@
         <v>166</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -6952,10 +6955,10 @@
         <v>213</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>73</v>
@@ -6973,7 +6976,7 @@
         <v>73</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>74</v>
@@ -6988,7 +6991,7 @@
         <v>94</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>73</v>
@@ -6999,7 +7002,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7022,13 +7025,13 @@
         <v>83</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -7079,7 +7082,7 @@
         <v>73</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>74</v>
@@ -7094,7 +7097,7 @@
         <v>94</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>73</v>
@@ -7105,7 +7108,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7131,10 +7134,10 @@
         <v>198</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -7185,7 +7188,7 @@
         <v>73</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>74</v>
@@ -7200,7 +7203,7 @@
         <v>94</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>73</v>
@@ -7211,7 +7214,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7234,13 +7237,13 @@
         <v>83</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -7291,7 +7294,7 @@
         <v>73</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>74</v>
@@ -7317,7 +7320,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7340,13 +7343,13 @@
         <v>83</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -7397,7 +7400,7 @@
         <v>73</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>74</v>
@@ -7412,7 +7415,7 @@
         <v>94</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>73</v>
@@ -7423,7 +7426,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7529,7 +7532,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7637,11 +7640,11 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
@@ -7663,10 +7666,10 @@
         <v>128</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="M58" t="s" s="2">
         <v>131</v>
@@ -7721,7 +7724,7 @@
         <v>73</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>74</v>
@@ -7747,7 +7750,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -7773,10 +7776,10 @@
         <v>140</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -7827,7 +7830,7 @@
         <v>73</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>74</v>
@@ -7842,7 +7845,7 @@
         <v>94</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>73</v>
@@ -7853,7 +7856,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -7879,10 +7882,10 @@
         <v>166</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -7912,10 +7915,10 @@
         <v>213</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>73</v>
@@ -7933,7 +7936,7 @@
         <v>73</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>74</v>
@@ -7948,7 +7951,7 @@
         <v>94</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>73</v>
@@ -7959,7 +7962,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -7985,10 +7988,10 @@
         <v>166</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -8039,7 +8042,7 @@
         <v>73</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>74</v>
@@ -8065,7 +8068,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8088,13 +8091,13 @@
         <v>83</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -8145,7 +8148,7 @@
         <v>73</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>74</v>
@@ -8160,7 +8163,7 @@
         <v>94</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>73</v>
@@ -8171,7 +8174,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8197,10 +8200,10 @@
         <v>73</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -8251,7 +8254,7 @@
         <v>73</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>74</v>
@@ -8266,7 +8269,7 @@
         <v>94</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>73</v>

--- a/StructureDefinition-PPLRegulatedAuthorization.xlsx
+++ b/StructureDefinition-PPLRegulatedAuthorization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-06T17:03:22+00:00</t>
+    <t>2022-11-06T21:19:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -673,7 +673,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="https://spor.ema.europa.eu/rmswi/#/lists/220000000060/terms"/&gt;
+    &lt;system value="http://spor.ema.europa.eu/v1/lists/220000000060"/&gt;
     &lt;code value="220000000061"/&gt;
     &lt;display value="Marketing Authorisation"/&gt;
   &lt;/coding&gt;
@@ -772,7 +772,7 @@
     <t>Need to be unambiguous about the source of the definition of the symbol.</t>
   </si>
   <si>
-    <t>https://spor.ema.europa.eu/rmswi/#/lists/100000000002/terms</t>
+    <t>http://spor.ema.europa.eu/v1/lists/100000000002</t>
   </si>
   <si>
     <t>Coding.system</t>
@@ -920,7 +920,7 @@
     <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
   </si>
   <si>
-    <t>https://spor.ema.europa.eu/rmswi/#/lists/100000072049/terms</t>
+    <t>http://spor.ema.europa.eu/v1/lists/100000072049</t>
   </si>
   <si>
     <t>RegulatedAuthorization.status.coding.version</t>

--- a/StructureDefinition-PPLRegulatedAuthorization.xlsx
+++ b/StructureDefinition-PPLRegulatedAuthorization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-06T21:19:48+00:00</t>
+    <t>2022-11-06T22:26:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLRegulatedAuthorization.xlsx
+++ b/StructureDefinition-PPLRegulatedAuthorization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-07T21:05:10+00:00</t>
+    <t>2022-11-07T21:23:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLRegulatedAuthorization.xlsx
+++ b/StructureDefinition-PPLRegulatedAuthorization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-07T21:23:46+00:00</t>
+    <t>2022-11-07T21:31:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLRegulatedAuthorization.xlsx
+++ b/StructureDefinition-PPLRegulatedAuthorization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-07T21:31:45+00:00</t>
+    <t>2022-11-08T20:50:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLRegulatedAuthorization.xlsx
+++ b/StructureDefinition-PPLRegulatedAuthorization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-11T12:45:51+00:00</t>
+    <t>2022-11-11T12:48:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLRegulatedAuthorization.xlsx
+++ b/StructureDefinition-PPLRegulatedAuthorization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-11T12:48:43+00:00</t>
+    <t>2022-11-11T13:10:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLRegulatedAuthorization.xlsx
+++ b/StructureDefinition-PPLRegulatedAuthorization.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2130" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2163" uniqueCount="369">
   <si>
     <t>Property</t>
   </si>
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://unicom-project.eu/fhir/StructureDefinition/PPLRegulatedAuthorization</t>
+    <t>https://hl7-eu.github.io/unicom-ig/branches/mpd-r5/StructureDefinition/PPLRegulatedAuthorization</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-11T13:10:08+00:00</t>
+    <t>2022-11-11T15:50:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -87,7 +87,7 @@
     <t>FHIR Version</t>
   </si>
   <si>
-    <t>4.3.0</t>
+    <t>5.0.0-ballot</t>
   </si>
   <si>
     <t>Kind</t>
@@ -277,7 +277,7 @@
     <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
   </si>
   <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+    <t>Within the context of the FHIR RESTful interactions, the resource has an id except for cases like the create and conditional update. Otherwise, the use of the resouce id depends on the given use case.</t>
   </si>
   <si>
     <t>Resource.id</t>
@@ -367,7 +367,7 @@
     <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
   </si>
   <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+    <t>Contained resources do not have a narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
   </si>
   <si>
     <t>DomainResource.text</t>
@@ -390,17 +390,13 @@
     <t>Contained, inline Resources</t>
   </si>
   <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, nor can they have their own independent transaction scope. This is allowed to be a Parameters resource if and only if it is referenced by a resource that provides context/meaning.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags in their meta elements, but SHALL NOT have security labels.</t>
   </si>
   <si>
     <t>DomainResource.contained</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dom-r4b:Containing new R4B resources within R4 resources may cause interoperability issues if instances are shared with R4 systems {($this is Citation or $this is Evidence or $this is EvidenceReport or $this is EvidenceVariable or $this is MedicinalProductDefinition or $this is PackagedProductDefinition or $this is AdministrableProductDefinition or $this is Ingredient or $this is ClinicalUseDefinition or $this is RegulatedAuthorization or $this is SubstanceDefinition or $this is SubscriptionStatus or $this is SubscriptionTopic) implies (%resource is Citation or %resource is Evidence or %resource is EvidenceReport or %resource is EvidenceVariable or %resource is MedicinalProductDefinition or %resource is PackagedProductDefinition or %resource is AdministrableProductDefinition or %resource is Ingredient or %resource is ClinicalUseDefinition or %resource is RegulatedAuthorization or %resource is SubstanceDefinition or %resource is SubscriptionStatus or %resource is SubscriptionTopic)}
-</t>
   </si>
   <si>
     <t>N/A</t>
@@ -443,7 +439,7 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/2021Mar/extensibility.html#modifierExtension).</t>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://build.fhir.org/extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -465,6 +461,9 @@
     <t>Marketing Authorisation.Marketing Authorisation Number</t>
   </si>
   <si>
+    <t>FiveWs.class</t>
+  </si>
+  <si>
     <t>RegulatedAuthorization.identifier.id</t>
   </si>
   <si>
@@ -517,7 +516,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.3.0</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use|5.0.0-ballot</t>
   </si>
   <si>
     <t>Identifier.use</t>
@@ -560,7 +559,7 @@
     <t>The namespace for the identifier value</t>
   </si>
   <si>
-    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
+    <t>Establishes the namespace for the value - that is, a absolute URL that describes a set values that are unique.</t>
   </si>
   <si>
     <t>Identifier.system is always case sensitive.</t>
@@ -594,7 +593,7 @@
     <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
   </si>
   <si>
-    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/2021Mar/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://build.fhir.org/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
   </si>
   <si>
     <t>123456</t>
@@ -650,7 +649,7 @@
     <t>RegulatedAuthorization.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://unicom-project.eu/fhir/StructureDefinition/PPLMedicinalProductDefinition|http://unicom-project.eu/fhir/StructureDefinition/PPLPackagedProductDefinition)
+    <t xml:space="preserve">Reference(https://hl7-eu.github.io/unicom-ig/branches/mpd-r5/StructureDefinition/PPLMedicinalProductDefinition|https://hl7-eu.github.io/unicom-ig/branches/mpd-r5/StructureDefinition/PPLPackagedProductDefinition)
 </t>
   </si>
   <si>
@@ -767,7 +766,7 @@
     <t>EMA IG 2.3</t>
   </si>
   <si>
-    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
+    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should be an absolute reference to some definition that establishes the system clearly and unambiguously.</t>
   </si>
   <si>
     <t>Need to be unambiguous about the source of the definition of the symbol.</t>
@@ -1016,7 +1015,7 @@
     <t>RegulatedAuthorization.holder</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://unicom-project.eu/fhir/StructureDefinition/PPLOrganization)
+    <t xml:space="preserve">Reference(https://hl7-eu.github.io/unicom-ig/branches/mpd-r5/StructureDefinition/PPLOrganization)
 </t>
   </si>
   <si>
@@ -1039,6 +1038,19 @@
   </si>
   <si>
     <t>Marketing Authorisation.Medicines Regulatory Agency (Organisation)</t>
+  </si>
+  <si>
+    <t>RegulatedAuthorization.attachedDocument</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(DocumentReference)
+</t>
+  </si>
+  <si>
+    <t>Additional information or supporting documentation about the authorization</t>
+  </si>
+  <si>
+    <t>Additional information or supporting documentation about the authorization.</t>
   </si>
   <si>
     <t>RegulatedAuthorization.case</t>
@@ -1052,10 +1064,6 @@
   </si>
   <si>
     <t>The case or regulatory procedure for granting or amending a regulated authorization. An authorization is granted in response to submissions/applications by those seeking authorization. A case is the administrative process that deals with the application(s) that relate to this and assesses them. Note: This area is subject to ongoing review and the workgroup is seeking implementer feedback on its use (see link at bottom of page).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children unless an empty Parameters resource {hasValue() or (children().count() &gt; id.count()) or $this is Parameters}
-</t>
   </si>
   <si>
     <t>Marketing Authorisation.Marketing Authorisation Procedure, Marketing Authorisation Procedure.Marketing Authorisation Application</t>
@@ -1445,7 +1453,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL62"/>
+  <dimension ref="A1:AL63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1484,7 +1492,7 @@
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="38.1875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="31" max="31" width="40.921875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
@@ -2350,25 +2358,25 @@
         <v>73</v>
       </c>
       <c r="AI8" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ8" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK8" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL8" t="s" s="2">
         <v>125</v>
-      </c>
-      <c r="AJ8" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK8" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL8" t="s" s="2">
-        <v>126</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2387,16 +2395,16 @@
         <v>73</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>131</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>132</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -2446,7 +2454,7 @@
         <v>73</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>74</v>
@@ -2458,7 +2466,7 @@
         <v>73</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>73</v>
@@ -2467,16 +2475,16 @@
         <v>73</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -2492,22 +2500,22 @@
         <v>83</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="N10" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>138</v>
       </c>
       <c r="O10" t="s" s="2">
         <v>73</v>
@@ -2556,7 +2564,7 @@
         <v>73</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>74</v>
@@ -2568,7 +2576,7 @@
         <v>73</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>73</v>
@@ -2577,12 +2585,12 @@
         <v>73</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2605,13 +2613,13 @@
         <v>83</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="L11" t="s" s="2">
         <v>142</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>143</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -2662,7 +2670,7 @@
         <v>73</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>74</v>
@@ -2677,10 +2685,10 @@
         <v>94</v>
       </c>
       <c r="AJ11" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="AK11" t="s" s="2">
         <v>144</v>
-      </c>
-      <c r="AK11" t="s" s="2">
-        <v>73</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>73</v>
@@ -2798,7 +2806,7 @@
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
@@ -2817,16 +2825,16 @@
         <v>73</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K13" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="K13" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="L13" t="s" s="2">
         <v>151</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -2888,7 +2896,7 @@
         <v>73</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>73</v>
@@ -4084,7 +4092,7 @@
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -4103,16 +4111,16 @@
         <v>73</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K25" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="K25" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="L25" t="s" s="2">
         <v>151</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
@@ -4174,7 +4182,7 @@
         <v>73</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>73</v>
@@ -4408,7 +4416,7 @@
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -4427,16 +4435,16 @@
         <v>73</v>
       </c>
       <c r="J28" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K28" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="K28" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="L28" t="s" s="2">
         <v>151</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -4498,7 +4506,7 @@
         <v>73</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>73</v>
@@ -5382,7 +5390,7 @@
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -5401,16 +5409,16 @@
         <v>73</v>
       </c>
       <c r="J37" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K37" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="K37" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="L37" t="s" s="2">
         <v>151</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -5472,7 +5480,7 @@
         <v>73</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>73</v>
@@ -5706,7 +5714,7 @@
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -5725,16 +5733,16 @@
         <v>73</v>
       </c>
       <c r="J40" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K40" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="K40" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="L40" t="s" s="2">
         <v>151</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -5796,7 +5804,7 @@
         <v>73</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>73</v>
@@ -6687,7 +6695,7 @@
         <v>74</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>73</v>
@@ -6762,7 +6770,7 @@
         <v>74</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>73</v>
@@ -7217,7 +7225,7 @@
         <v>74</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>73</v>
@@ -7292,16 +7300,16 @@
         <v>74</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>335</v>
+        <v>94</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>336</v>
+        <v>149</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>73</v>
@@ -7312,7 +7320,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7332,16 +7340,16 @@
         <v>73</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>184</v>
+        <v>336</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>146</v>
+        <v>337</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>147</v>
+        <v>338</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -7392,7 +7400,7 @@
         <v>73</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>148</v>
+        <v>335</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>74</v>
@@ -7404,32 +7412,32 @@
         <v>73</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>73</v>
+        <v>339</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>149</v>
+        <v>73</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>128</v>
+        <v>73</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>73</v>
@@ -7441,17 +7449,15 @@
         <v>73</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>129</v>
+        <v>184</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="M56" s="2"/>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>73</v>
@@ -7500,19 +7506,19 @@
         <v>73</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>134</v>
+        <v>73</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>73</v>
@@ -7526,11 +7532,11 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>340</v>
+        <v>127</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -7543,26 +7549,24 @@
         <v>73</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J57" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K57" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="K57" t="s" s="2">
-        <v>341</v>
-      </c>
       <c r="L57" t="s" s="2">
-        <v>342</v>
+        <v>151</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>73</v>
       </c>
@@ -7610,7 +7614,7 @@
         <v>73</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>343</v>
+        <v>155</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>74</v>
@@ -7622,7 +7626,7 @@
         <v>73</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>73</v>
@@ -7631,44 +7635,48 @@
         <v>73</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>126</v>
+        <v>149</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>73</v>
+        <v>343</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="I58" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="L58" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="M58" s="2"/>
-      <c r="N58" s="2"/>
+      <c r="M58" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="O58" t="s" s="2">
         <v>73</v>
       </c>
@@ -7716,33 +7724,33 @@
         <v>73</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>347</v>
+        <v>73</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>73</v>
+        <v>125</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -7765,13 +7773,13 @@
         <v>83</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>166</v>
+        <v>140</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>349</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>350</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -7798,13 +7806,13 @@
         <v>73</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>213</v>
+        <v>73</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>351</v>
+        <v>73</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>352</v>
+        <v>73</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>73</v>
@@ -7822,7 +7830,7 @@
         <v>73</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>74</v>
@@ -7837,7 +7845,7 @@
         <v>94</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>73</v>
@@ -7848,7 +7856,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -7874,10 +7882,10 @@
         <v>166</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -7904,13 +7912,13 @@
         <v>73</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>106</v>
+        <v>213</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>282</v>
+        <v>354</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>283</v>
+        <v>355</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>73</v>
@@ -7928,7 +7936,7 @@
         <v>73</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>74</v>
@@ -7943,7 +7951,7 @@
         <v>94</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>149</v>
+        <v>356</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>73</v>
@@ -7977,13 +7985,13 @@
         <v>83</v>
       </c>
       <c r="J61" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="K61" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="K61" t="s" s="2">
+      <c r="L61" t="s" s="2">
         <v>359</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>360</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -8010,13 +8018,13 @@
         <v>73</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>73</v>
+        <v>106</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>73</v>
+        <v>282</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>73</v>
+        <v>283</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>73</v>
@@ -8049,7 +8057,7 @@
         <v>94</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>361</v>
+        <v>149</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>73</v>
@@ -8060,7 +8068,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8071,7 +8079,7 @@
         <v>74</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>73</v>
@@ -8083,13 +8091,13 @@
         <v>83</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>73</v>
+        <v>361</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>363</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>364</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -8140,13 +8148,13 @@
         <v>73</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>73</v>
@@ -8155,12 +8163,118 @@
         <v>94</v>
       </c>
       <c r="AJ62" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="AK62" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL62" t="s" s="2">
+      <c r="B63" s="2"/>
+      <c r="C63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D63" s="2"/>
+      <c r="E63" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="M63" s="2"/>
+      <c r="N63" s="2"/>
+      <c r="O63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P63" s="2"/>
+      <c r="Q63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL63" t="s" s="2">
         <v>73</v>
       </c>
     </row>

--- a/StructureDefinition-PPLRegulatedAuthorization.xlsx
+++ b/StructureDefinition-PPLRegulatedAuthorization.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2163" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2130" uniqueCount="366">
   <si>
     <t>Property</t>
   </si>
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://hl7-eu.github.io/unicom-ig/branches/mpd-r5/StructureDefinition/PPLRegulatedAuthorization</t>
+    <t>http://unicom-project.eu/fhir/StructureDefinition/PPLRegulatedAuthorization</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-11T20:48:35+00:00</t>
+    <t>2022-11-12T19:50:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -87,7 +87,7 @@
     <t>FHIR Version</t>
   </si>
   <si>
-    <t>5.0.0-ballot</t>
+    <t>4.3.0</t>
   </si>
   <si>
     <t>Kind</t>
@@ -277,7 +277,7 @@
     <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
   </si>
   <si>
-    <t>Within the context of the FHIR RESTful interactions, the resource has an id except for cases like the create and conditional update. Otherwise, the use of the resouce id depends on the given use case.</t>
+    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
   </si>
   <si>
     <t>Resource.id</t>
@@ -367,7 +367,7 @@
     <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
   </si>
   <si>
-    <t>Contained resources do not have a narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
   </si>
   <si>
     <t>DomainResource.text</t>
@@ -390,13 +390,17 @@
     <t>Contained, inline Resources</t>
   </si>
   <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, nor can they have their own independent transaction scope. This is allowed to be a Parameters resource if and only if it is referenced by a resource that provides context/meaning.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags in their meta elements, but SHALL NOT have security labels.</t>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
   </si>
   <si>
     <t>DomainResource.contained</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dom-r4b:Containing new R4B resources within R4 resources may cause interoperability issues if instances are shared with R4 systems {($this is Citation or $this is Evidence or $this is EvidenceReport or $this is EvidenceVariable or $this is MedicinalProductDefinition or $this is PackagedProductDefinition or $this is AdministrableProductDefinition or $this is Ingredient or $this is ClinicalUseDefinition or $this is RegulatedAuthorization or $this is SubstanceDefinition or $this is SubscriptionStatus or $this is SubscriptionTopic) implies (%resource is Citation or %resource is Evidence or %resource is EvidenceReport or %resource is EvidenceVariable or %resource is MedicinalProductDefinition or %resource is PackagedProductDefinition or %resource is AdministrableProductDefinition or %resource is Ingredient or %resource is ClinicalUseDefinition or %resource is RegulatedAuthorization or %resource is SubstanceDefinition or %resource is SubscriptionStatus or %resource is SubscriptionTopic)}
+</t>
   </si>
   <si>
     <t>N/A</t>
@@ -439,7 +443,7 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://build.fhir.org/extensibility.html#modifierExtension).</t>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/2021Mar/extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -461,9 +465,6 @@
     <t>Marketing Authorisation.Marketing Authorisation Number</t>
   </si>
   <si>
-    <t>FiveWs.class</t>
-  </si>
-  <si>
     <t>RegulatedAuthorization.identifier.id</t>
   </si>
   <si>
@@ -516,7 +517,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-use|5.0.0-ballot</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.3.0</t>
   </si>
   <si>
     <t>Identifier.use</t>
@@ -559,7 +560,7 @@
     <t>The namespace for the identifier value</t>
   </si>
   <si>
-    <t>Establishes the namespace for the value - that is, a absolute URL that describes a set values that are unique.</t>
+    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
   </si>
   <si>
     <t>Identifier.system is always case sensitive.</t>
@@ -593,7 +594,7 @@
     <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
   </si>
   <si>
-    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://build.fhir.org/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/2021Mar/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
   </si>
   <si>
     <t>123456</t>
@@ -649,7 +650,7 @@
     <t>RegulatedAuthorization.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://hl7-eu.github.io/unicom-ig/branches/mpd-r5/StructureDefinition/PPLMedicinalProductDefinition|https://hl7-eu.github.io/unicom-ig/branches/mpd-r5/StructureDefinition/PPLPackagedProductDefinition)
+    <t xml:space="preserve">Reference(http://unicom-project.eu/fhir/StructureDefinition/PPLMedicinalProductDefinition|http://unicom-project.eu/fhir/StructureDefinition/PPLPackagedProductDefinition)
 </t>
   </si>
   <si>
@@ -766,7 +767,7 @@
     <t>EMA IG 2.3</t>
   </si>
   <si>
-    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should be an absolute reference to some definition that establishes the system clearly and unambiguously.</t>
+    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
   </si>
   <si>
     <t>Need to be unambiguous about the source of the definition of the symbol.</t>
@@ -1015,7 +1016,7 @@
     <t>RegulatedAuthorization.holder</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://hl7-eu.github.io/unicom-ig/branches/mpd-r5/StructureDefinition/PPLOrganization)
+    <t xml:space="preserve">Reference(http://unicom-project.eu/fhir/StructureDefinition/PPLOrganization)
 </t>
   </si>
   <si>
@@ -1038,19 +1039,6 @@
   </si>
   <si>
     <t>Marketing Authorisation.Medicines Regulatory Agency (Organisation)</t>
-  </si>
-  <si>
-    <t>RegulatedAuthorization.attachedDocument</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(DocumentReference)
-</t>
-  </si>
-  <si>
-    <t>Additional information or supporting documentation about the authorization</t>
-  </si>
-  <si>
-    <t>Additional information or supporting documentation about the authorization.</t>
   </si>
   <si>
     <t>RegulatedAuthorization.case</t>
@@ -1064,6 +1052,10 @@
   </si>
   <si>
     <t>The case or regulatory procedure for granting or amending a regulated authorization. An authorization is granted in response to submissions/applications by those seeking authorization. A case is the administrative process that deals with the application(s) that relate to this and assesses them. Note: This area is subject to ongoing review and the workgroup is seeking implementer feedback on its use (see link at bottom of page).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children unless an empty Parameters resource {hasValue() or (children().count() &gt; id.count()) or $this is Parameters}
+</t>
   </si>
   <si>
     <t>Marketing Authorisation.Marketing Authorisation Procedure, Marketing Authorisation Procedure.Marketing Authorisation Application</t>
@@ -1453,7 +1445,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL63"/>
+  <dimension ref="A1:AL62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1492,7 +1484,7 @@
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="40.921875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="31" max="31" width="38.1875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
@@ -2358,7 +2350,7 @@
         <v>73</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>73</v>
+        <v>125</v>
       </c>
       <c r="AJ8" t="s" s="2">
         <v>73</v>
@@ -2367,16 +2359,16 @@
         <v>73</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2395,16 +2387,16 @@
         <v>73</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -2454,7 +2446,7 @@
         <v>73</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>74</v>
@@ -2466,7 +2458,7 @@
         <v>73</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>73</v>
@@ -2475,16 +2467,16 @@
         <v>73</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -2500,22 +2492,22 @@
         <v>83</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O10" t="s" s="2">
         <v>73</v>
@@ -2564,7 +2556,7 @@
         <v>73</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>74</v>
@@ -2576,7 +2568,7 @@
         <v>73</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>73</v>
@@ -2585,12 +2577,12 @@
         <v>73</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2613,13 +2605,13 @@
         <v>83</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -2670,7 +2662,7 @@
         <v>73</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>74</v>
@@ -2685,10 +2677,10 @@
         <v>94</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>144</v>
+        <v>73</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>73</v>
@@ -2806,7 +2798,7 @@
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
@@ -2825,16 +2817,16 @@
         <v>73</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L13" t="s" s="2">
         <v>151</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -2896,7 +2888,7 @@
         <v>73</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>73</v>
@@ -4092,7 +4084,7 @@
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -4111,16 +4103,16 @@
         <v>73</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L25" t="s" s="2">
         <v>151</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
@@ -4182,7 +4174,7 @@
         <v>73</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>73</v>
@@ -4416,7 +4408,7 @@
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -4435,16 +4427,16 @@
         <v>73</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L28" t="s" s="2">
         <v>151</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -4506,7 +4498,7 @@
         <v>73</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>73</v>
@@ -5390,7 +5382,7 @@
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -5409,16 +5401,16 @@
         <v>73</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L37" t="s" s="2">
         <v>151</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -5480,7 +5472,7 @@
         <v>73</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>73</v>
@@ -5714,7 +5706,7 @@
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -5733,16 +5725,16 @@
         <v>73</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L40" t="s" s="2">
         <v>151</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -5804,7 +5796,7 @@
         <v>73</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>73</v>
@@ -6695,7 +6687,7 @@
         <v>74</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>73</v>
@@ -6770,7 +6762,7 @@
         <v>74</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>73</v>
@@ -7225,7 +7217,7 @@
         <v>74</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>73</v>
@@ -7300,16 +7292,16 @@
         <v>74</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>94</v>
+        <v>335</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>149</v>
+        <v>336</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>73</v>
@@ -7320,7 +7312,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7340,16 +7332,16 @@
         <v>73</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>336</v>
+        <v>184</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>337</v>
+        <v>146</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>338</v>
+        <v>147</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -7400,7 +7392,7 @@
         <v>73</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>335</v>
+        <v>148</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>74</v>
@@ -7412,32 +7404,32 @@
         <v>73</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>339</v>
+        <v>73</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>73</v>
+        <v>149</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>73</v>
@@ -7449,15 +7441,17 @@
         <v>73</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>184</v>
+        <v>129</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="M56" s="2"/>
+        <v>151</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>132</v>
+      </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>73</v>
@@ -7506,19 +7500,19 @@
         <v>73</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>73</v>
+        <v>134</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>73</v>
@@ -7532,11 +7526,11 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>127</v>
+        <v>340</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -7549,24 +7543,26 @@
         <v>73</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>129</v>
+        <v>341</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>151</v>
+        <v>342</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="N57" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="O57" t="s" s="2">
         <v>73</v>
       </c>
@@ -7614,7 +7610,7 @@
         <v>73</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>155</v>
+        <v>343</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>74</v>
@@ -7626,7 +7622,7 @@
         <v>73</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>73</v>
@@ -7635,48 +7631,44 @@
         <v>73</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>149</v>
+        <v>126</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>343</v>
+        <v>73</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="I58" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>346</v>
+      </c>
+      <c r="M58" s="2"/>
+      <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>73</v>
       </c>
@@ -7724,33 +7716,33 @@
         <v>73</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>133</v>
+        <v>94</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>73</v>
+        <v>347</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>125</v>
+        <v>73</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -7773,13 +7765,13 @@
         <v>83</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>140</v>
+        <v>166</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -7806,13 +7798,13 @@
         <v>73</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>73</v>
+        <v>213</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>73</v>
+        <v>351</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>73</v>
+        <v>352</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>73</v>
@@ -7830,7 +7822,7 @@
         <v>73</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>74</v>
@@ -7845,7 +7837,7 @@
         <v>94</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>73</v>
@@ -7856,7 +7848,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -7882,10 +7874,10 @@
         <v>166</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -7912,31 +7904,31 @@
         <v>73</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>213</v>
+        <v>106</v>
       </c>
       <c r="X60" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE60" t="s" s="2">
         <v>354</v>
-      </c>
-      <c r="Y60" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="Z60" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA60" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB60" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC60" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD60" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE60" t="s" s="2">
-        <v>351</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>74</v>
@@ -7951,7 +7943,7 @@
         <v>94</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>356</v>
+        <v>149</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>73</v>
@@ -7985,13 +7977,13 @@
         <v>83</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>166</v>
+        <v>358</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -8018,13 +8010,13 @@
         <v>73</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>106</v>
+        <v>73</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>282</v>
+        <v>73</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>283</v>
+        <v>73</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>73</v>
@@ -8057,7 +8049,7 @@
         <v>94</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>149</v>
+        <v>361</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>73</v>
@@ -8068,7 +8060,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8079,7 +8071,7 @@
         <v>74</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>73</v>
@@ -8091,13 +8083,13 @@
         <v>83</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>361</v>
+        <v>73</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -8148,13 +8140,13 @@
         <v>73</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>73</v>
@@ -8163,118 +8155,12 @@
         <v>94</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="B63" s="2"/>
-      <c r="C63" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D63" s="2"/>
-      <c r="E63" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F63" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G63" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H63" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I63" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J63" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="K63" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="M63" s="2"/>
-      <c r="N63" s="2"/>
-      <c r="O63" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P63" s="2"/>
-      <c r="Q63" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R63" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S63" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T63" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U63" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V63" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W63" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X63" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y63" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z63" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA63" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB63" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC63" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD63" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE63" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="AF63" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG63" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH63" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI63" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ63" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="AK63" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL63" t="s" s="2">
         <v>73</v>
       </c>
     </row>

--- a/StructureDefinition-PPLRegulatedAuthorization.xlsx
+++ b/StructureDefinition-PPLRegulatedAuthorization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-12T19:50:48+00:00</t>
+    <t>2022-11-12T20:00:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLRegulatedAuthorization.xlsx
+++ b/StructureDefinition-PPLRegulatedAuthorization.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2130" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2163" uniqueCount="369">
   <si>
     <t>Property</t>
   </si>
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://unicom-project.eu/fhir/StructureDefinition/PPLRegulatedAuthorization</t>
+    <t>https://hl7-eu.github.io/unicom-ig/branches/mpd-r5/StructureDefinition/PPLRegulatedAuthorization</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-12T20:00:33+00:00</t>
+    <t>2022-11-14T19:25:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -87,7 +87,7 @@
     <t>FHIR Version</t>
   </si>
   <si>
-    <t>4.3.0</t>
+    <t>5.0.0-ballot</t>
   </si>
   <si>
     <t>Kind</t>
@@ -277,7 +277,7 @@
     <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
   </si>
   <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+    <t>Within the context of the FHIR RESTful interactions, the resource has an id except for cases like the create and conditional update. Otherwise, the use of the resouce id depends on the given use case.</t>
   </si>
   <si>
     <t>Resource.id</t>
@@ -367,7 +367,7 @@
     <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
   </si>
   <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+    <t>Contained resources do not have a narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
   </si>
   <si>
     <t>DomainResource.text</t>
@@ -390,17 +390,13 @@
     <t>Contained, inline Resources</t>
   </si>
   <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, nor can they have their own independent transaction scope. This is allowed to be a Parameters resource if and only if it is referenced by a resource that provides context/meaning.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags in their meta elements, but SHALL NOT have security labels.</t>
   </si>
   <si>
     <t>DomainResource.contained</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dom-r4b:Containing new R4B resources within R4 resources may cause interoperability issues if instances are shared with R4 systems {($this is Citation or $this is Evidence or $this is EvidenceReport or $this is EvidenceVariable or $this is MedicinalProductDefinition or $this is PackagedProductDefinition or $this is AdministrableProductDefinition or $this is Ingredient or $this is ClinicalUseDefinition or $this is RegulatedAuthorization or $this is SubstanceDefinition or $this is SubscriptionStatus or $this is SubscriptionTopic) implies (%resource is Citation or %resource is Evidence or %resource is EvidenceReport or %resource is EvidenceVariable or %resource is MedicinalProductDefinition or %resource is PackagedProductDefinition or %resource is AdministrableProductDefinition or %resource is Ingredient or %resource is ClinicalUseDefinition or %resource is RegulatedAuthorization or %resource is SubstanceDefinition or %resource is SubscriptionStatus or %resource is SubscriptionTopic)}
-</t>
   </si>
   <si>
     <t>N/A</t>
@@ -443,7 +439,7 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/2021Mar/extensibility.html#modifierExtension).</t>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://build.fhir.org/extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -465,6 +461,9 @@
     <t>Marketing Authorisation.Marketing Authorisation Number</t>
   </si>
   <si>
+    <t>FiveWs.class</t>
+  </si>
+  <si>
     <t>RegulatedAuthorization.identifier.id</t>
   </si>
   <si>
@@ -517,7 +516,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.3.0</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use|5.0.0-ballot</t>
   </si>
   <si>
     <t>Identifier.use</t>
@@ -560,7 +559,7 @@
     <t>The namespace for the identifier value</t>
   </si>
   <si>
-    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
+    <t>Establishes the namespace for the value - that is, a absolute URL that describes a set values that are unique.</t>
   </si>
   <si>
     <t>Identifier.system is always case sensitive.</t>
@@ -594,7 +593,7 @@
     <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
   </si>
   <si>
-    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/2021Mar/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://build.fhir.org/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
   </si>
   <si>
     <t>123456</t>
@@ -650,7 +649,7 @@
     <t>RegulatedAuthorization.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://unicom-project.eu/fhir/StructureDefinition/PPLMedicinalProductDefinition|http://unicom-project.eu/fhir/StructureDefinition/PPLPackagedProductDefinition)
+    <t xml:space="preserve">Reference(https://hl7-eu.github.io/unicom-ig/branches/mpd-r5/StructureDefinition/PPLMedicinalProductDefinition|https://hl7-eu.github.io/unicom-ig/branches/mpd-r5/StructureDefinition/PPLPackagedProductDefinition)
 </t>
   </si>
   <si>
@@ -767,7 +766,7 @@
     <t>EMA IG 2.3</t>
   </si>
   <si>
-    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
+    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should be an absolute reference to some definition that establishes the system clearly and unambiguously.</t>
   </si>
   <si>
     <t>Need to be unambiguous about the source of the definition of the symbol.</t>
@@ -1016,7 +1015,7 @@
     <t>RegulatedAuthorization.holder</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://unicom-project.eu/fhir/StructureDefinition/PPLOrganization)
+    <t xml:space="preserve">Reference(https://hl7-eu.github.io/unicom-ig/branches/mpd-r5/StructureDefinition/PPLOrganization)
 </t>
   </si>
   <si>
@@ -1039,6 +1038,19 @@
   </si>
   <si>
     <t>Marketing Authorisation.Medicines Regulatory Agency (Organisation)</t>
+  </si>
+  <si>
+    <t>RegulatedAuthorization.attachedDocument</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(DocumentReference)
+</t>
+  </si>
+  <si>
+    <t>Additional information or supporting documentation about the authorization</t>
+  </si>
+  <si>
+    <t>Additional information or supporting documentation about the authorization.</t>
   </si>
   <si>
     <t>RegulatedAuthorization.case</t>
@@ -1052,10 +1064,6 @@
   </si>
   <si>
     <t>The case or regulatory procedure for granting or amending a regulated authorization. An authorization is granted in response to submissions/applications by those seeking authorization. A case is the administrative process that deals with the application(s) that relate to this and assesses them. Note: This area is subject to ongoing review and the workgroup is seeking implementer feedback on its use (see link at bottom of page).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children unless an empty Parameters resource {hasValue() or (children().count() &gt; id.count()) or $this is Parameters}
-</t>
   </si>
   <si>
     <t>Marketing Authorisation.Marketing Authorisation Procedure, Marketing Authorisation Procedure.Marketing Authorisation Application</t>
@@ -1445,7 +1453,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL62"/>
+  <dimension ref="A1:AL63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1484,7 +1492,7 @@
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="38.1875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="31" max="31" width="40.921875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
@@ -2350,25 +2358,25 @@
         <v>73</v>
       </c>
       <c r="AI8" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ8" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK8" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL8" t="s" s="2">
         <v>125</v>
-      </c>
-      <c r="AJ8" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK8" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL8" t="s" s="2">
-        <v>126</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2387,16 +2395,16 @@
         <v>73</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>131</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>132</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -2446,7 +2454,7 @@
         <v>73</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>74</v>
@@ -2458,7 +2466,7 @@
         <v>73</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>73</v>
@@ -2467,16 +2475,16 @@
         <v>73</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -2492,22 +2500,22 @@
         <v>83</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="N10" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>138</v>
       </c>
       <c r="O10" t="s" s="2">
         <v>73</v>
@@ -2556,7 +2564,7 @@
         <v>73</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>74</v>
@@ -2568,7 +2576,7 @@
         <v>73</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>73</v>
@@ -2577,12 +2585,12 @@
         <v>73</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2605,13 +2613,13 @@
         <v>83</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="L11" t="s" s="2">
         <v>142</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>143</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -2662,7 +2670,7 @@
         <v>73</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>74</v>
@@ -2677,10 +2685,10 @@
         <v>94</v>
       </c>
       <c r="AJ11" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="AK11" t="s" s="2">
         <v>144</v>
-      </c>
-      <c r="AK11" t="s" s="2">
-        <v>73</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>73</v>
@@ -2798,7 +2806,7 @@
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
@@ -2817,16 +2825,16 @@
         <v>73</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K13" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="K13" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="L13" t="s" s="2">
         <v>151</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -2888,7 +2896,7 @@
         <v>73</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>73</v>
@@ -4084,7 +4092,7 @@
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -4103,16 +4111,16 @@
         <v>73</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K25" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="K25" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="L25" t="s" s="2">
         <v>151</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
@@ -4174,7 +4182,7 @@
         <v>73</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>73</v>
@@ -4408,7 +4416,7 @@
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -4427,16 +4435,16 @@
         <v>73</v>
       </c>
       <c r="J28" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K28" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="K28" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="L28" t="s" s="2">
         <v>151</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -4498,7 +4506,7 @@
         <v>73</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>73</v>
@@ -5382,7 +5390,7 @@
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -5401,16 +5409,16 @@
         <v>73</v>
       </c>
       <c r="J37" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K37" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="K37" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="L37" t="s" s="2">
         <v>151</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -5472,7 +5480,7 @@
         <v>73</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>73</v>
@@ -5706,7 +5714,7 @@
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -5725,16 +5733,16 @@
         <v>73</v>
       </c>
       <c r="J40" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K40" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="K40" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="L40" t="s" s="2">
         <v>151</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -5796,7 +5804,7 @@
         <v>73</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>73</v>
@@ -6687,7 +6695,7 @@
         <v>74</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>73</v>
@@ -6762,7 +6770,7 @@
         <v>74</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>73</v>
@@ -7217,7 +7225,7 @@
         <v>74</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>73</v>
@@ -7292,16 +7300,16 @@
         <v>74</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>335</v>
+        <v>94</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>336</v>
+        <v>149</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>73</v>
@@ -7312,7 +7320,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7332,16 +7340,16 @@
         <v>73</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>184</v>
+        <v>336</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>146</v>
+        <v>337</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>147</v>
+        <v>338</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -7392,7 +7400,7 @@
         <v>73</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>148</v>
+        <v>335</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>74</v>
@@ -7404,32 +7412,32 @@
         <v>73</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>73</v>
+        <v>339</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>149</v>
+        <v>73</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>128</v>
+        <v>73</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>73</v>
@@ -7441,17 +7449,15 @@
         <v>73</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>129</v>
+        <v>184</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="M56" s="2"/>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>73</v>
@@ -7500,19 +7506,19 @@
         <v>73</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>134</v>
+        <v>73</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>73</v>
@@ -7526,11 +7532,11 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>340</v>
+        <v>127</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -7543,26 +7549,24 @@
         <v>73</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J57" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K57" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="K57" t="s" s="2">
-        <v>341</v>
-      </c>
       <c r="L57" t="s" s="2">
-        <v>342</v>
+        <v>151</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>73</v>
       </c>
@@ -7610,7 +7614,7 @@
         <v>73</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>343</v>
+        <v>155</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>74</v>
@@ -7622,7 +7626,7 @@
         <v>73</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>73</v>
@@ -7631,44 +7635,48 @@
         <v>73</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>126</v>
+        <v>149</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>73</v>
+        <v>343</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="I58" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="L58" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="M58" s="2"/>
-      <c r="N58" s="2"/>
+      <c r="M58" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="O58" t="s" s="2">
         <v>73</v>
       </c>
@@ -7716,33 +7724,33 @@
         <v>73</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>347</v>
+        <v>73</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>73</v>
+        <v>125</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -7765,13 +7773,13 @@
         <v>83</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>166</v>
+        <v>140</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>349</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>350</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -7798,13 +7806,13 @@
         <v>73</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>213</v>
+        <v>73</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>351</v>
+        <v>73</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>352</v>
+        <v>73</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>73</v>
@@ -7822,7 +7830,7 @@
         <v>73</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>74</v>
@@ -7837,7 +7845,7 @@
         <v>94</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>73</v>
@@ -7848,7 +7856,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -7874,10 +7882,10 @@
         <v>166</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -7904,13 +7912,13 @@
         <v>73</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>106</v>
+        <v>213</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>282</v>
+        <v>354</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>283</v>
+        <v>355</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>73</v>
@@ -7928,7 +7936,7 @@
         <v>73</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>74</v>
@@ -7943,7 +7951,7 @@
         <v>94</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>149</v>
+        <v>356</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>73</v>
@@ -7977,13 +7985,13 @@
         <v>83</v>
       </c>
       <c r="J61" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="K61" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="K61" t="s" s="2">
+      <c r="L61" t="s" s="2">
         <v>359</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>360</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -8010,13 +8018,13 @@
         <v>73</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>73</v>
+        <v>106</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>73</v>
+        <v>282</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>73</v>
+        <v>283</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>73</v>
@@ -8049,7 +8057,7 @@
         <v>94</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>361</v>
+        <v>149</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>73</v>
@@ -8060,7 +8068,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8071,7 +8079,7 @@
         <v>74</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>73</v>
@@ -8083,13 +8091,13 @@
         <v>83</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>73</v>
+        <v>361</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>363</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>364</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -8140,13 +8148,13 @@
         <v>73</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>73</v>
@@ -8155,12 +8163,118 @@
         <v>94</v>
       </c>
       <c r="AJ62" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="AK62" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL62" t="s" s="2">
+      <c r="B63" s="2"/>
+      <c r="C63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D63" s="2"/>
+      <c r="E63" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="M63" s="2"/>
+      <c r="N63" s="2"/>
+      <c r="O63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P63" s="2"/>
+      <c r="Q63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL63" t="s" s="2">
         <v>73</v>
       </c>
     </row>

--- a/StructureDefinition-PPLRegulatedAuthorization.xlsx
+++ b/StructureDefinition-PPLRegulatedAuthorization.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2163" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2130" uniqueCount="366">
   <si>
     <t>Property</t>
   </si>
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://hl7-eu.github.io/unicom-ig/branches/mpd-r5/StructureDefinition/PPLRegulatedAuthorization</t>
+    <t>http://unicom-project.eu/fhir/StructureDefinition/PPLRegulatedAuthorization</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-14T19:25:53+00:00</t>
+    <t>2022-11-16T21:11:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -87,7 +87,7 @@
     <t>FHIR Version</t>
   </si>
   <si>
-    <t>5.0.0-ballot</t>
+    <t>4.3.0</t>
   </si>
   <si>
     <t>Kind</t>
@@ -277,7 +277,7 @@
     <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
   </si>
   <si>
-    <t>Within the context of the FHIR RESTful interactions, the resource has an id except for cases like the create and conditional update. Otherwise, the use of the resouce id depends on the given use case.</t>
+    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
   </si>
   <si>
     <t>Resource.id</t>
@@ -367,7 +367,7 @@
     <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
   </si>
   <si>
-    <t>Contained resources do not have a narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
   </si>
   <si>
     <t>DomainResource.text</t>
@@ -390,13 +390,17 @@
     <t>Contained, inline Resources</t>
   </si>
   <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, nor can they have their own independent transaction scope. This is allowed to be a Parameters resource if and only if it is referenced by a resource that provides context/meaning.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags in their meta elements, but SHALL NOT have security labels.</t>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
   </si>
   <si>
     <t>DomainResource.contained</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dom-r4b:Containing new R4B resources within R4 resources may cause interoperability issues if instances are shared with R4 systems {($this is Citation or $this is Evidence or $this is EvidenceReport or $this is EvidenceVariable or $this is MedicinalProductDefinition or $this is PackagedProductDefinition or $this is AdministrableProductDefinition or $this is Ingredient or $this is ClinicalUseDefinition or $this is RegulatedAuthorization or $this is SubstanceDefinition or $this is SubscriptionStatus or $this is SubscriptionTopic) implies (%resource is Citation or %resource is Evidence or %resource is EvidenceReport or %resource is EvidenceVariable or %resource is MedicinalProductDefinition or %resource is PackagedProductDefinition or %resource is AdministrableProductDefinition or %resource is Ingredient or %resource is ClinicalUseDefinition or %resource is RegulatedAuthorization or %resource is SubstanceDefinition or %resource is SubscriptionStatus or %resource is SubscriptionTopic)}
+</t>
   </si>
   <si>
     <t>N/A</t>
@@ -439,7 +443,7 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://build.fhir.org/extensibility.html#modifierExtension).</t>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/2021Mar/extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -461,9 +465,6 @@
     <t>Marketing Authorisation.Marketing Authorisation Number</t>
   </si>
   <si>
-    <t>FiveWs.class</t>
-  </si>
-  <si>
     <t>RegulatedAuthorization.identifier.id</t>
   </si>
   <si>
@@ -516,7 +517,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-use|5.0.0-ballot</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.3.0</t>
   </si>
   <si>
     <t>Identifier.use</t>
@@ -559,7 +560,7 @@
     <t>The namespace for the identifier value</t>
   </si>
   <si>
-    <t>Establishes the namespace for the value - that is, a absolute URL that describes a set values that are unique.</t>
+    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
   </si>
   <si>
     <t>Identifier.system is always case sensitive.</t>
@@ -593,7 +594,7 @@
     <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
   </si>
   <si>
-    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://build.fhir.org/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/2021Mar/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
   </si>
   <si>
     <t>123456</t>
@@ -649,7 +650,7 @@
     <t>RegulatedAuthorization.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://hl7-eu.github.io/unicom-ig/branches/mpd-r5/StructureDefinition/PPLMedicinalProductDefinition|https://hl7-eu.github.io/unicom-ig/branches/mpd-r5/StructureDefinition/PPLPackagedProductDefinition)
+    <t xml:space="preserve">Reference(http://unicom-project.eu/fhir/StructureDefinition/PPLMedicinalProductDefinition|http://unicom-project.eu/fhir/StructureDefinition/PPLPackagedProductDefinition)
 </t>
   </si>
   <si>
@@ -766,7 +767,7 @@
     <t>EMA IG 2.3</t>
   </si>
   <si>
-    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should be an absolute reference to some definition that establishes the system clearly and unambiguously.</t>
+    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
   </si>
   <si>
     <t>Need to be unambiguous about the source of the definition of the symbol.</t>
@@ -1015,7 +1016,7 @@
     <t>RegulatedAuthorization.holder</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://hl7-eu.github.io/unicom-ig/branches/mpd-r5/StructureDefinition/PPLOrganization)
+    <t xml:space="preserve">Reference(http://unicom-project.eu/fhir/StructureDefinition/PPLOrganization)
 </t>
   </si>
   <si>
@@ -1038,19 +1039,6 @@
   </si>
   <si>
     <t>Marketing Authorisation.Medicines Regulatory Agency (Organisation)</t>
-  </si>
-  <si>
-    <t>RegulatedAuthorization.attachedDocument</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(DocumentReference)
-</t>
-  </si>
-  <si>
-    <t>Additional information or supporting documentation about the authorization</t>
-  </si>
-  <si>
-    <t>Additional information or supporting documentation about the authorization.</t>
   </si>
   <si>
     <t>RegulatedAuthorization.case</t>
@@ -1064,6 +1052,10 @@
   </si>
   <si>
     <t>The case or regulatory procedure for granting or amending a regulated authorization. An authorization is granted in response to submissions/applications by those seeking authorization. A case is the administrative process that deals with the application(s) that relate to this and assesses them. Note: This area is subject to ongoing review and the workgroup is seeking implementer feedback on its use (see link at bottom of page).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children unless an empty Parameters resource {hasValue() or (children().count() &gt; id.count()) or $this is Parameters}
+</t>
   </si>
   <si>
     <t>Marketing Authorisation.Marketing Authorisation Procedure, Marketing Authorisation Procedure.Marketing Authorisation Application</t>
@@ -1453,7 +1445,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL63"/>
+  <dimension ref="A1:AL62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1492,7 +1484,7 @@
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="40.921875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="31" max="31" width="38.1875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
@@ -2358,7 +2350,7 @@
         <v>73</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>73</v>
+        <v>125</v>
       </c>
       <c r="AJ8" t="s" s="2">
         <v>73</v>
@@ -2367,16 +2359,16 @@
         <v>73</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2395,16 +2387,16 @@
         <v>73</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -2454,7 +2446,7 @@
         <v>73</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>74</v>
@@ -2466,7 +2458,7 @@
         <v>73</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>73</v>
@@ -2475,16 +2467,16 @@
         <v>73</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -2500,22 +2492,22 @@
         <v>83</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O10" t="s" s="2">
         <v>73</v>
@@ -2564,7 +2556,7 @@
         <v>73</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>74</v>
@@ -2576,7 +2568,7 @@
         <v>73</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>73</v>
@@ -2585,12 +2577,12 @@
         <v>73</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2613,13 +2605,13 @@
         <v>83</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -2670,7 +2662,7 @@
         <v>73</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>74</v>
@@ -2685,10 +2677,10 @@
         <v>94</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>144</v>
+        <v>73</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>73</v>
@@ -2806,7 +2798,7 @@
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
@@ -2825,16 +2817,16 @@
         <v>73</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L13" t="s" s="2">
         <v>151</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -2896,7 +2888,7 @@
         <v>73</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>73</v>
@@ -4092,7 +4084,7 @@
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -4111,16 +4103,16 @@
         <v>73</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L25" t="s" s="2">
         <v>151</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
@@ -4182,7 +4174,7 @@
         <v>73</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>73</v>
@@ -4416,7 +4408,7 @@
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -4435,16 +4427,16 @@
         <v>73</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L28" t="s" s="2">
         <v>151</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -4506,7 +4498,7 @@
         <v>73</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>73</v>
@@ -5390,7 +5382,7 @@
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -5409,16 +5401,16 @@
         <v>73</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L37" t="s" s="2">
         <v>151</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -5480,7 +5472,7 @@
         <v>73</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>73</v>
@@ -5714,7 +5706,7 @@
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -5733,16 +5725,16 @@
         <v>73</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L40" t="s" s="2">
         <v>151</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -5804,7 +5796,7 @@
         <v>73</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>73</v>
@@ -6695,7 +6687,7 @@
         <v>74</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>73</v>
@@ -6770,7 +6762,7 @@
         <v>74</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>73</v>
@@ -7225,7 +7217,7 @@
         <v>74</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>73</v>
@@ -7300,16 +7292,16 @@
         <v>74</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>94</v>
+        <v>335</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>149</v>
+        <v>336</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>73</v>
@@ -7320,7 +7312,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7340,16 +7332,16 @@
         <v>73</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>336</v>
+        <v>184</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>337</v>
+        <v>146</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>338</v>
+        <v>147</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -7400,7 +7392,7 @@
         <v>73</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>335</v>
+        <v>148</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>74</v>
@@ -7412,32 +7404,32 @@
         <v>73</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>339</v>
+        <v>73</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>73</v>
+        <v>149</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>73</v>
@@ -7449,15 +7441,17 @@
         <v>73</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>184</v>
+        <v>129</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="M56" s="2"/>
+        <v>151</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>132</v>
+      </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>73</v>
@@ -7506,19 +7500,19 @@
         <v>73</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>73</v>
+        <v>134</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>73</v>
@@ -7532,11 +7526,11 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>127</v>
+        <v>340</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -7549,24 +7543,26 @@
         <v>73</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>129</v>
+        <v>341</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>151</v>
+        <v>342</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="N57" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="O57" t="s" s="2">
         <v>73</v>
       </c>
@@ -7614,7 +7610,7 @@
         <v>73</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>155</v>
+        <v>343</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>74</v>
@@ -7626,7 +7622,7 @@
         <v>73</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>73</v>
@@ -7635,48 +7631,44 @@
         <v>73</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>149</v>
+        <v>126</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>343</v>
+        <v>73</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="I58" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>346</v>
+      </c>
+      <c r="M58" s="2"/>
+      <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>73</v>
       </c>
@@ -7724,33 +7716,33 @@
         <v>73</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>133</v>
+        <v>94</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>73</v>
+        <v>347</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>125</v>
+        <v>73</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -7773,13 +7765,13 @@
         <v>83</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>140</v>
+        <v>166</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -7806,13 +7798,13 @@
         <v>73</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>73</v>
+        <v>213</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>73</v>
+        <v>351</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>73</v>
+        <v>352</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>73</v>
@@ -7830,7 +7822,7 @@
         <v>73</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>74</v>
@@ -7845,7 +7837,7 @@
         <v>94</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>73</v>
@@ -7856,7 +7848,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -7882,10 +7874,10 @@
         <v>166</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -7912,31 +7904,31 @@
         <v>73</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>213</v>
+        <v>106</v>
       </c>
       <c r="X60" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE60" t="s" s="2">
         <v>354</v>
-      </c>
-      <c r="Y60" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="Z60" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA60" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB60" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC60" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD60" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE60" t="s" s="2">
-        <v>351</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>74</v>
@@ -7951,7 +7943,7 @@
         <v>94</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>356</v>
+        <v>149</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>73</v>
@@ -7985,13 +7977,13 @@
         <v>83</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>166</v>
+        <v>358</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -8018,13 +8010,13 @@
         <v>73</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>106</v>
+        <v>73</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>282</v>
+        <v>73</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>283</v>
+        <v>73</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>73</v>
@@ -8057,7 +8049,7 @@
         <v>94</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>149</v>
+        <v>361</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>73</v>
@@ -8068,7 +8060,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8079,7 +8071,7 @@
         <v>74</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>73</v>
@@ -8091,13 +8083,13 @@
         <v>83</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>361</v>
+        <v>73</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -8148,13 +8140,13 @@
         <v>73</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>73</v>
@@ -8163,118 +8155,12 @@
         <v>94</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="B63" s="2"/>
-      <c r="C63" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D63" s="2"/>
-      <c r="E63" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F63" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G63" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H63" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I63" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J63" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="K63" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="M63" s="2"/>
-      <c r="N63" s="2"/>
-      <c r="O63" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P63" s="2"/>
-      <c r="Q63" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R63" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S63" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T63" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U63" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V63" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W63" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X63" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y63" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z63" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA63" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB63" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC63" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD63" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE63" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="AF63" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG63" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH63" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI63" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ63" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="AK63" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL63" t="s" s="2">
         <v>73</v>
       </c>
     </row>

--- a/StructureDefinition-PPLRegulatedAuthorization.xlsx
+++ b/StructureDefinition-PPLRegulatedAuthorization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-16T21:11:51+00:00</t>
+    <t>2022-11-16T21:23:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLRegulatedAuthorization.xlsx
+++ b/StructureDefinition-PPLRegulatedAuthorization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-16T21:23:11+00:00</t>
+    <t>2022-11-17T06:36:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLRegulatedAuthorization.xlsx
+++ b/StructureDefinition-PPLRegulatedAuthorization.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2130" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2163" uniqueCount="369">
   <si>
     <t>Property</t>
   </si>
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://unicom-project.eu/fhir/StructureDefinition/PPLRegulatedAuthorization</t>
+    <t>https://hl7-eu.github.io/unicom-ig/branches/mpd-r5/StructureDefinition/PPLRegulatedAuthorization</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-17T06:36:33+00:00</t>
+    <t>2022-11-17T17:44:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -87,7 +87,7 @@
     <t>FHIR Version</t>
   </si>
   <si>
-    <t>4.3.0</t>
+    <t>5.0.0-ballot</t>
   </si>
   <si>
     <t>Kind</t>
@@ -277,7 +277,7 @@
     <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
   </si>
   <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+    <t>Within the context of the FHIR RESTful interactions, the resource has an id except for cases like the create and conditional update. Otherwise, the use of the resouce id depends on the given use case.</t>
   </si>
   <si>
     <t>Resource.id</t>
@@ -367,7 +367,7 @@
     <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
   </si>
   <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+    <t>Contained resources do not have a narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
   </si>
   <si>
     <t>DomainResource.text</t>
@@ -390,17 +390,13 @@
     <t>Contained, inline Resources</t>
   </si>
   <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, nor can they have their own independent transaction scope. This is allowed to be a Parameters resource if and only if it is referenced by a resource that provides context/meaning.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags in their meta elements, but SHALL NOT have security labels.</t>
   </si>
   <si>
     <t>DomainResource.contained</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dom-r4b:Containing new R4B resources within R4 resources may cause interoperability issues if instances are shared with R4 systems {($this is Citation or $this is Evidence or $this is EvidenceReport or $this is EvidenceVariable or $this is MedicinalProductDefinition or $this is PackagedProductDefinition or $this is AdministrableProductDefinition or $this is Ingredient or $this is ClinicalUseDefinition or $this is RegulatedAuthorization or $this is SubstanceDefinition or $this is SubscriptionStatus or $this is SubscriptionTopic) implies (%resource is Citation or %resource is Evidence or %resource is EvidenceReport or %resource is EvidenceVariable or %resource is MedicinalProductDefinition or %resource is PackagedProductDefinition or %resource is AdministrableProductDefinition or %resource is Ingredient or %resource is ClinicalUseDefinition or %resource is RegulatedAuthorization or %resource is SubstanceDefinition or %resource is SubscriptionStatus or %resource is SubscriptionTopic)}
-</t>
   </si>
   <si>
     <t>N/A</t>
@@ -443,7 +439,7 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/2021Mar/extensibility.html#modifierExtension).</t>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://build.fhir.org/extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -465,6 +461,9 @@
     <t>Marketing Authorisation.Marketing Authorisation Number</t>
   </si>
   <si>
+    <t>FiveWs.class</t>
+  </si>
+  <si>
     <t>RegulatedAuthorization.identifier.id</t>
   </si>
   <si>
@@ -517,7 +516,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.3.0</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use|5.0.0-ballot</t>
   </si>
   <si>
     <t>Identifier.use</t>
@@ -560,7 +559,7 @@
     <t>The namespace for the identifier value</t>
   </si>
   <si>
-    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
+    <t>Establishes the namespace for the value - that is, a absolute URL that describes a set values that are unique.</t>
   </si>
   <si>
     <t>Identifier.system is always case sensitive.</t>
@@ -594,7 +593,7 @@
     <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
   </si>
   <si>
-    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/2021Mar/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://build.fhir.org/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
   </si>
   <si>
     <t>123456</t>
@@ -650,7 +649,7 @@
     <t>RegulatedAuthorization.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://unicom-project.eu/fhir/StructureDefinition/PPLMedicinalProductDefinition|http://unicom-project.eu/fhir/StructureDefinition/PPLPackagedProductDefinition)
+    <t xml:space="preserve">Reference(https://hl7-eu.github.io/unicom-ig/branches/mpd-r5/StructureDefinition/PPLMedicinalProductDefinition|https://hl7-eu.github.io/unicom-ig/branches/mpd-r5/StructureDefinition/PPLPackagedProductDefinition)
 </t>
   </si>
   <si>
@@ -767,7 +766,7 @@
     <t>EMA IG 2.3</t>
   </si>
   <si>
-    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
+    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should be an absolute reference to some definition that establishes the system clearly and unambiguously.</t>
   </si>
   <si>
     <t>Need to be unambiguous about the source of the definition of the symbol.</t>
@@ -1016,7 +1015,7 @@
     <t>RegulatedAuthorization.holder</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://unicom-project.eu/fhir/StructureDefinition/PPLOrganization)
+    <t xml:space="preserve">Reference(https://hl7-eu.github.io/unicom-ig/branches/mpd-r5/StructureDefinition/PPLOrganization)
 </t>
   </si>
   <si>
@@ -1039,6 +1038,19 @@
   </si>
   <si>
     <t>Marketing Authorisation.Medicines Regulatory Agency (Organisation)</t>
+  </si>
+  <si>
+    <t>RegulatedAuthorization.attachedDocument</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(DocumentReference)
+</t>
+  </si>
+  <si>
+    <t>Additional information or supporting documentation about the authorization</t>
+  </si>
+  <si>
+    <t>Additional information or supporting documentation about the authorization.</t>
   </si>
   <si>
     <t>RegulatedAuthorization.case</t>
@@ -1052,10 +1064,6 @@
   </si>
   <si>
     <t>The case or regulatory procedure for granting or amending a regulated authorization. An authorization is granted in response to submissions/applications by those seeking authorization. A case is the administrative process that deals with the application(s) that relate to this and assesses them. Note: This area is subject to ongoing review and the workgroup is seeking implementer feedback on its use (see link at bottom of page).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children unless an empty Parameters resource {hasValue() or (children().count() &gt; id.count()) or $this is Parameters}
-</t>
   </si>
   <si>
     <t>Marketing Authorisation.Marketing Authorisation Procedure, Marketing Authorisation Procedure.Marketing Authorisation Application</t>
@@ -1445,7 +1453,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL62"/>
+  <dimension ref="A1:AL63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1484,7 +1492,7 @@
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="38.1875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="31" max="31" width="40.921875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
@@ -2350,25 +2358,25 @@
         <v>73</v>
       </c>
       <c r="AI8" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ8" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK8" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL8" t="s" s="2">
         <v>125</v>
-      </c>
-      <c r="AJ8" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK8" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL8" t="s" s="2">
-        <v>126</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2387,16 +2395,16 @@
         <v>73</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>131</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>132</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -2446,7 +2454,7 @@
         <v>73</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>74</v>
@@ -2458,7 +2466,7 @@
         <v>73</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>73</v>
@@ -2467,16 +2475,16 @@
         <v>73</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -2492,22 +2500,22 @@
         <v>83</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="N10" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>138</v>
       </c>
       <c r="O10" t="s" s="2">
         <v>73</v>
@@ -2556,7 +2564,7 @@
         <v>73</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>74</v>
@@ -2568,7 +2576,7 @@
         <v>73</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>73</v>
@@ -2577,12 +2585,12 @@
         <v>73</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2605,13 +2613,13 @@
         <v>83</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="L11" t="s" s="2">
         <v>142</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>143</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -2662,7 +2670,7 @@
         <v>73</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>74</v>
@@ -2677,10 +2685,10 @@
         <v>94</v>
       </c>
       <c r="AJ11" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="AK11" t="s" s="2">
         <v>144</v>
-      </c>
-      <c r="AK11" t="s" s="2">
-        <v>73</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>73</v>
@@ -2798,7 +2806,7 @@
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
@@ -2817,16 +2825,16 @@
         <v>73</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K13" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="K13" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="L13" t="s" s="2">
         <v>151</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -2888,7 +2896,7 @@
         <v>73</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>73</v>
@@ -4084,7 +4092,7 @@
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -4103,16 +4111,16 @@
         <v>73</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K25" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="K25" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="L25" t="s" s="2">
         <v>151</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
@@ -4174,7 +4182,7 @@
         <v>73</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>73</v>
@@ -4408,7 +4416,7 @@
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -4427,16 +4435,16 @@
         <v>73</v>
       </c>
       <c r="J28" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K28" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="K28" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="L28" t="s" s="2">
         <v>151</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -4498,7 +4506,7 @@
         <v>73</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>73</v>
@@ -5382,7 +5390,7 @@
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -5401,16 +5409,16 @@
         <v>73</v>
       </c>
       <c r="J37" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K37" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="K37" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="L37" t="s" s="2">
         <v>151</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -5472,7 +5480,7 @@
         <v>73</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>73</v>
@@ -5706,7 +5714,7 @@
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -5725,16 +5733,16 @@
         <v>73</v>
       </c>
       <c r="J40" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K40" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="K40" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="L40" t="s" s="2">
         <v>151</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -5796,7 +5804,7 @@
         <v>73</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>73</v>
@@ -6687,7 +6695,7 @@
         <v>74</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>73</v>
@@ -6762,7 +6770,7 @@
         <v>74</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>73</v>
@@ -7217,7 +7225,7 @@
         <v>74</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>73</v>
@@ -7292,16 +7300,16 @@
         <v>74</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>335</v>
+        <v>94</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>336</v>
+        <v>149</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>73</v>
@@ -7312,7 +7320,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7332,16 +7340,16 @@
         <v>73</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>184</v>
+        <v>336</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>146</v>
+        <v>337</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>147</v>
+        <v>338</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -7392,7 +7400,7 @@
         <v>73</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>148</v>
+        <v>335</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>74</v>
@@ -7404,32 +7412,32 @@
         <v>73</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>73</v>
+        <v>339</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>149</v>
+        <v>73</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>128</v>
+        <v>73</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>73</v>
@@ -7441,17 +7449,15 @@
         <v>73</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>129</v>
+        <v>184</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="M56" s="2"/>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>73</v>
@@ -7500,19 +7506,19 @@
         <v>73</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>134</v>
+        <v>73</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>73</v>
@@ -7526,11 +7532,11 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>340</v>
+        <v>127</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -7543,26 +7549,24 @@
         <v>73</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J57" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K57" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="K57" t="s" s="2">
-        <v>341</v>
-      </c>
       <c r="L57" t="s" s="2">
-        <v>342</v>
+        <v>151</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>73</v>
       </c>
@@ -7610,7 +7614,7 @@
         <v>73</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>343</v>
+        <v>155</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>74</v>
@@ -7622,7 +7626,7 @@
         <v>73</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>73</v>
@@ -7631,44 +7635,48 @@
         <v>73</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>126</v>
+        <v>149</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>73</v>
+        <v>343</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="I58" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="L58" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="M58" s="2"/>
-      <c r="N58" s="2"/>
+      <c r="M58" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="O58" t="s" s="2">
         <v>73</v>
       </c>
@@ -7716,33 +7724,33 @@
         <v>73</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>347</v>
+        <v>73</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>73</v>
+        <v>125</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -7765,13 +7773,13 @@
         <v>83</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>166</v>
+        <v>140</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>349</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>350</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -7798,13 +7806,13 @@
         <v>73</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>213</v>
+        <v>73</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>351</v>
+        <v>73</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>352</v>
+        <v>73</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>73</v>
@@ -7822,7 +7830,7 @@
         <v>73</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>74</v>
@@ -7837,7 +7845,7 @@
         <v>94</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>73</v>
@@ -7848,7 +7856,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -7874,10 +7882,10 @@
         <v>166</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -7904,13 +7912,13 @@
         <v>73</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>106</v>
+        <v>213</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>282</v>
+        <v>354</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>283</v>
+        <v>355</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>73</v>
@@ -7928,7 +7936,7 @@
         <v>73</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>74</v>
@@ -7943,7 +7951,7 @@
         <v>94</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>149</v>
+        <v>356</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>73</v>
@@ -7977,13 +7985,13 @@
         <v>83</v>
       </c>
       <c r="J61" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="K61" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="K61" t="s" s="2">
+      <c r="L61" t="s" s="2">
         <v>359</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>360</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -8010,13 +8018,13 @@
         <v>73</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>73</v>
+        <v>106</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>73</v>
+        <v>282</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>73</v>
+        <v>283</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>73</v>
@@ -8049,7 +8057,7 @@
         <v>94</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>361</v>
+        <v>149</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>73</v>
@@ -8060,7 +8068,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8071,7 +8079,7 @@
         <v>74</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>73</v>
@@ -8083,13 +8091,13 @@
         <v>83</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>73</v>
+        <v>361</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>363</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>364</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -8140,13 +8148,13 @@
         <v>73</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>73</v>
@@ -8155,12 +8163,118 @@
         <v>94</v>
       </c>
       <c r="AJ62" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="AK62" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL62" t="s" s="2">
+      <c r="B63" s="2"/>
+      <c r="C63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D63" s="2"/>
+      <c r="E63" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="M63" s="2"/>
+      <c r="N63" s="2"/>
+      <c r="O63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="P63" s="2"/>
+      <c r="Q63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL63" t="s" s="2">
         <v>73</v>
       </c>
     </row>

--- a/StructureDefinition-PPLRegulatedAuthorization.xlsx
+++ b/StructureDefinition-PPLRegulatedAuthorization.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2163" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2130" uniqueCount="366">
   <si>
     <t>Property</t>
   </si>
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://hl7-eu.github.io/unicom-ig/branches/mpd-r5/StructureDefinition/PPLRegulatedAuthorization</t>
+    <t>http://unicom-project.eu/fhir/StructureDefinition/PPLRegulatedAuthorization</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-17T17:44:56+00:00</t>
+    <t>2022-11-18T19:44:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -87,7 +87,7 @@
     <t>FHIR Version</t>
   </si>
   <si>
-    <t>5.0.0-ballot</t>
+    <t>4.3.0</t>
   </si>
   <si>
     <t>Kind</t>
@@ -277,7 +277,7 @@
     <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
   </si>
   <si>
-    <t>Within the context of the FHIR RESTful interactions, the resource has an id except for cases like the create and conditional update. Otherwise, the use of the resouce id depends on the given use case.</t>
+    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
   </si>
   <si>
     <t>Resource.id</t>
@@ -367,7 +367,7 @@
     <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
   </si>
   <si>
-    <t>Contained resources do not have a narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
   </si>
   <si>
     <t>DomainResource.text</t>
@@ -390,13 +390,17 @@
     <t>Contained, inline Resources</t>
   </si>
   <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, nor can they have their own independent transaction scope. This is allowed to be a Parameters resource if and only if it is referenced by a resource that provides context/meaning.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags in their meta elements, but SHALL NOT have security labels.</t>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
   </si>
   <si>
     <t>DomainResource.contained</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dom-r4b:Containing new R4B resources within R4 resources may cause interoperability issues if instances are shared with R4 systems {($this is Citation or $this is Evidence or $this is EvidenceReport or $this is EvidenceVariable or $this is MedicinalProductDefinition or $this is PackagedProductDefinition or $this is AdministrableProductDefinition or $this is Ingredient or $this is ClinicalUseDefinition or $this is RegulatedAuthorization or $this is SubstanceDefinition or $this is SubscriptionStatus or $this is SubscriptionTopic) implies (%resource is Citation or %resource is Evidence or %resource is EvidenceReport or %resource is EvidenceVariable or %resource is MedicinalProductDefinition or %resource is PackagedProductDefinition or %resource is AdministrableProductDefinition or %resource is Ingredient or %resource is ClinicalUseDefinition or %resource is RegulatedAuthorization or %resource is SubstanceDefinition or %resource is SubscriptionStatus or %resource is SubscriptionTopic)}
+</t>
   </si>
   <si>
     <t>N/A</t>
@@ -439,7 +443,7 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://build.fhir.org/extensibility.html#modifierExtension).</t>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/2021Mar/extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -461,9 +465,6 @@
     <t>Marketing Authorisation.Marketing Authorisation Number</t>
   </si>
   <si>
-    <t>FiveWs.class</t>
-  </si>
-  <si>
     <t>RegulatedAuthorization.identifier.id</t>
   </si>
   <si>
@@ -516,7 +517,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-use|5.0.0-ballot</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.3.0</t>
   </si>
   <si>
     <t>Identifier.use</t>
@@ -559,7 +560,7 @@
     <t>The namespace for the identifier value</t>
   </si>
   <si>
-    <t>Establishes the namespace for the value - that is, a absolute URL that describes a set values that are unique.</t>
+    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
   </si>
   <si>
     <t>Identifier.system is always case sensitive.</t>
@@ -593,7 +594,7 @@
     <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
   </si>
   <si>
-    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://build.fhir.org/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/2021Mar/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
   </si>
   <si>
     <t>123456</t>
@@ -649,7 +650,7 @@
     <t>RegulatedAuthorization.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://hl7-eu.github.io/unicom-ig/branches/mpd-r5/StructureDefinition/PPLMedicinalProductDefinition|https://hl7-eu.github.io/unicom-ig/branches/mpd-r5/StructureDefinition/PPLPackagedProductDefinition)
+    <t xml:space="preserve">Reference(http://unicom-project.eu/fhir/StructureDefinition/PPLMedicinalProductDefinition|http://unicom-project.eu/fhir/StructureDefinition/PPLPackagedProductDefinition)
 </t>
   </si>
   <si>
@@ -766,7 +767,7 @@
     <t>EMA IG 2.3</t>
   </si>
   <si>
-    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should be an absolute reference to some definition that establishes the system clearly and unambiguously.</t>
+    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
   </si>
   <si>
     <t>Need to be unambiguous about the source of the definition of the symbol.</t>
@@ -1015,7 +1016,7 @@
     <t>RegulatedAuthorization.holder</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://hl7-eu.github.io/unicom-ig/branches/mpd-r5/StructureDefinition/PPLOrganization)
+    <t xml:space="preserve">Reference(http://unicom-project.eu/fhir/StructureDefinition/PPLOrganization)
 </t>
   </si>
   <si>
@@ -1038,19 +1039,6 @@
   </si>
   <si>
     <t>Marketing Authorisation.Medicines Regulatory Agency (Organisation)</t>
-  </si>
-  <si>
-    <t>RegulatedAuthorization.attachedDocument</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(DocumentReference)
-</t>
-  </si>
-  <si>
-    <t>Additional information or supporting documentation about the authorization</t>
-  </si>
-  <si>
-    <t>Additional information or supporting documentation about the authorization.</t>
   </si>
   <si>
     <t>RegulatedAuthorization.case</t>
@@ -1064,6 +1052,10 @@
   </si>
   <si>
     <t>The case or regulatory procedure for granting or amending a regulated authorization. An authorization is granted in response to submissions/applications by those seeking authorization. A case is the administrative process that deals with the application(s) that relate to this and assesses them. Note: This area is subject to ongoing review and the workgroup is seeking implementer feedback on its use (see link at bottom of page).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children unless an empty Parameters resource {hasValue() or (children().count() &gt; id.count()) or $this is Parameters}
+</t>
   </si>
   <si>
     <t>Marketing Authorisation.Marketing Authorisation Procedure, Marketing Authorisation Procedure.Marketing Authorisation Application</t>
@@ -1453,7 +1445,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL63"/>
+  <dimension ref="A1:AL62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1492,7 +1484,7 @@
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="40.921875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="31" max="31" width="38.1875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
@@ -2358,7 +2350,7 @@
         <v>73</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>73</v>
+        <v>125</v>
       </c>
       <c r="AJ8" t="s" s="2">
         <v>73</v>
@@ -2367,16 +2359,16 @@
         <v>73</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2395,16 +2387,16 @@
         <v>73</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -2454,7 +2446,7 @@
         <v>73</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>74</v>
@@ -2466,7 +2458,7 @@
         <v>73</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>73</v>
@@ -2475,16 +2467,16 @@
         <v>73</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -2500,22 +2492,22 @@
         <v>83</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O10" t="s" s="2">
         <v>73</v>
@@ -2564,7 +2556,7 @@
         <v>73</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>74</v>
@@ -2576,7 +2568,7 @@
         <v>73</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>73</v>
@@ -2585,12 +2577,12 @@
         <v>73</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2613,13 +2605,13 @@
         <v>83</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -2670,7 +2662,7 @@
         <v>73</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>74</v>
@@ -2685,10 +2677,10 @@
         <v>94</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>144</v>
+        <v>73</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>73</v>
@@ -2806,7 +2798,7 @@
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
@@ -2825,16 +2817,16 @@
         <v>73</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L13" t="s" s="2">
         <v>151</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -2896,7 +2888,7 @@
         <v>73</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>73</v>
@@ -4092,7 +4084,7 @@
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -4111,16 +4103,16 @@
         <v>73</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L25" t="s" s="2">
         <v>151</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
@@ -4182,7 +4174,7 @@
         <v>73</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>73</v>
@@ -4416,7 +4408,7 @@
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -4435,16 +4427,16 @@
         <v>73</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L28" t="s" s="2">
         <v>151</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -4506,7 +4498,7 @@
         <v>73</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>73</v>
@@ -5390,7 +5382,7 @@
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -5409,16 +5401,16 @@
         <v>73</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L37" t="s" s="2">
         <v>151</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -5480,7 +5472,7 @@
         <v>73</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>73</v>
@@ -5714,7 +5706,7 @@
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -5733,16 +5725,16 @@
         <v>73</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L40" t="s" s="2">
         <v>151</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -5804,7 +5796,7 @@
         <v>73</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>73</v>
@@ -6695,7 +6687,7 @@
         <v>74</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>73</v>
@@ -6770,7 +6762,7 @@
         <v>74</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>73</v>
@@ -7225,7 +7217,7 @@
         <v>74</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>73</v>
@@ -7300,16 +7292,16 @@
         <v>74</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>94</v>
+        <v>335</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>149</v>
+        <v>336</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>73</v>
@@ -7320,7 +7312,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7340,16 +7332,16 @@
         <v>73</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>336</v>
+        <v>184</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>337</v>
+        <v>146</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>338</v>
+        <v>147</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -7400,7 +7392,7 @@
         <v>73</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>335</v>
+        <v>148</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>74</v>
@@ -7412,32 +7404,32 @@
         <v>73</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>339</v>
+        <v>73</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>73</v>
+        <v>149</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>73</v>
@@ -7449,15 +7441,17 @@
         <v>73</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>184</v>
+        <v>129</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="M56" s="2"/>
+        <v>151</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>132</v>
+      </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>73</v>
@@ -7506,19 +7500,19 @@
         <v>73</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>73</v>
+        <v>134</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>73</v>
@@ -7532,11 +7526,11 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>127</v>
+        <v>340</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -7549,24 +7543,26 @@
         <v>73</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>129</v>
+        <v>341</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>151</v>
+        <v>342</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="N57" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="O57" t="s" s="2">
         <v>73</v>
       </c>
@@ -7614,7 +7610,7 @@
         <v>73</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>155</v>
+        <v>343</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>74</v>
@@ -7626,7 +7622,7 @@
         <v>73</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>73</v>
@@ -7635,48 +7631,44 @@
         <v>73</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>149</v>
+        <v>126</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>343</v>
+        <v>73</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="I58" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>346</v>
+      </c>
+      <c r="M58" s="2"/>
+      <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>73</v>
       </c>
@@ -7724,33 +7716,33 @@
         <v>73</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>133</v>
+        <v>94</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>73</v>
+        <v>347</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>125</v>
+        <v>73</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -7773,13 +7765,13 @@
         <v>83</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>140</v>
+        <v>166</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -7806,13 +7798,13 @@
         <v>73</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>73</v>
+        <v>213</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>73</v>
+        <v>351</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>73</v>
+        <v>352</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>73</v>
@@ -7830,7 +7822,7 @@
         <v>73</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>74</v>
@@ -7845,7 +7837,7 @@
         <v>94</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>73</v>
@@ -7856,7 +7848,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -7882,10 +7874,10 @@
         <v>166</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -7912,31 +7904,31 @@
         <v>73</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>213</v>
+        <v>106</v>
       </c>
       <c r="X60" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE60" t="s" s="2">
         <v>354</v>
-      </c>
-      <c r="Y60" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="Z60" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA60" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB60" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC60" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD60" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE60" t="s" s="2">
-        <v>351</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>74</v>
@@ -7951,7 +7943,7 @@
         <v>94</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>356</v>
+        <v>149</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>73</v>
@@ -7985,13 +7977,13 @@
         <v>83</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>166</v>
+        <v>358</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -8018,13 +8010,13 @@
         <v>73</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>106</v>
+        <v>73</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>282</v>
+        <v>73</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>283</v>
+        <v>73</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>73</v>
@@ -8057,7 +8049,7 @@
         <v>94</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>149</v>
+        <v>361</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>73</v>
@@ -8068,7 +8060,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8079,7 +8071,7 @@
         <v>74</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>73</v>
@@ -8091,13 +8083,13 @@
         <v>83</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>361</v>
+        <v>73</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -8148,13 +8140,13 @@
         <v>73</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>73</v>
@@ -8163,118 +8155,12 @@
         <v>94</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="B63" s="2"/>
-      <c r="C63" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D63" s="2"/>
-      <c r="E63" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F63" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G63" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H63" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I63" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J63" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="K63" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="M63" s="2"/>
-      <c r="N63" s="2"/>
-      <c r="O63" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P63" s="2"/>
-      <c r="Q63" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R63" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S63" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T63" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U63" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V63" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W63" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X63" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y63" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z63" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA63" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB63" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC63" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD63" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE63" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="AF63" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG63" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH63" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI63" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ63" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="AK63" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL63" t="s" s="2">
         <v>73</v>
       </c>
     </row>

--- a/StructureDefinition-PPLRegulatedAuthorization.xlsx
+++ b/StructureDefinition-PPLRegulatedAuthorization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-18T19:44:59+00:00</t>
+    <t>2022-11-18T19:50:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLRegulatedAuthorization.xlsx
+++ b/StructureDefinition-PPLRegulatedAuthorization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-18T19:50:12+00:00</t>
+    <t>2022-11-18T19:51:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLRegulatedAuthorization.xlsx
+++ b/StructureDefinition-PPLRegulatedAuthorization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-18T19:51:53+00:00</t>
+    <t>2022-11-18T19:52:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLRegulatedAuthorization.xlsx
+++ b/StructureDefinition-PPLRegulatedAuthorization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-18T19:52:09+00:00</t>
+    <t>2022-11-18T19:57:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLRegulatedAuthorization.xlsx
+++ b/StructureDefinition-PPLRegulatedAuthorization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-18T19:57:45+00:00</t>
+    <t>2022-11-19T06:10:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLRegulatedAuthorization.xlsx
+++ b/StructureDefinition-PPLRegulatedAuthorization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-19T22:26:15+00:00</t>
+    <t>2022-11-19T22:53:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLRegulatedAuthorization.xlsx
+++ b/StructureDefinition-PPLRegulatedAuthorization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-19T22:53:07+00:00</t>
+    <t>2022-11-20T07:00:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLRegulatedAuthorization.xlsx
+++ b/StructureDefinition-PPLRegulatedAuthorization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-20T07:00:59+00:00</t>
+    <t>2022-11-20T07:03:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLRegulatedAuthorization.xlsx
+++ b/StructureDefinition-PPLRegulatedAuthorization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-20T07:03:41+00:00</t>
+    <t>2022-11-20T09:28:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLRegulatedAuthorization.xlsx
+++ b/StructureDefinition-PPLRegulatedAuthorization.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2130" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1890" uniqueCount="359">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-20T17:12:02+00:00</t>
+    <t>2022-11-20T17:48:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -737,34 +737,88 @@
     <t>Code defined by a terminology system</t>
   </si>
   <si>
+    <t>EMA IG 2.3</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+  </si>
+  <si>
+    <t>http://unicom-project.eu/fhir/ValueSet/country-ema-vs</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>RegulatedAuthorization.region.text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
+  </si>
+  <si>
+    <t>RegulatedAuthorization.status</t>
+  </si>
+  <si>
+    <t>Marketing authorisation status</t>
+  </si>
+  <si>
+    <t>EMA IG 2.4</t>
+  </si>
+  <si>
+    <t>The lifecycle status of an artifact.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/publication-status</t>
+  </si>
+  <si>
+    <t>Marketing Authorisation.Authorisation Status</t>
+  </si>
+  <si>
+    <t>RegulatedAuthorization.status.id</t>
+  </si>
+  <si>
+    <t>RegulatedAuthorization.status.extension</t>
+  </si>
+  <si>
+    <t>RegulatedAuthorization.status.coding</t>
+  </si>
+  <si>
     <t>A reference to a code defined by a terminology system.</t>
   </si>
   <si>
-    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
-  </si>
-  <si>
-    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.coding</t>
-  </si>
-  <si>
-    <t>union(., ./translation)</t>
-  </si>
-  <si>
-    <t>RegulatedAuthorization.region.coding.id</t>
-  </si>
-  <si>
-    <t>RegulatedAuthorization.region.coding.extension</t>
-  </si>
-  <si>
-    <t>RegulatedAuthorization.region.coding.system</t>
+    <t>RegulatedAuthorization.status.coding.id</t>
+  </si>
+  <si>
+    <t>RegulatedAuthorization.status.coding.extension</t>
+  </si>
+  <si>
+    <t>RegulatedAuthorization.status.coding.system</t>
   </si>
   <si>
     <t>Identity of the terminology system</t>
   </si>
   <si>
-    <t>EMA IG 2.3</t>
+    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
   </si>
   <si>
     <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
@@ -773,7 +827,7 @@
     <t>Need to be unambiguous about the source of the definition of the symbol.</t>
   </si>
   <si>
-    <t>https://spor.ema.europa.eu/v1/lists/100000000002</t>
+    <t>https://spor.ema.europa.eu/v1/lists/100000072049</t>
   </si>
   <si>
     <t>Coding.system</t>
@@ -782,7 +836,7 @@
     <t>./codeSystem</t>
   </si>
   <si>
-    <t>RegulatedAuthorization.region.coding.version</t>
+    <t>RegulatedAuthorization.status.coding.version</t>
   </si>
   <si>
     <t>Version of the system - if relevant</t>
@@ -800,7 +854,7 @@
     <t>./codeSystemVersion</t>
   </si>
   <si>
-    <t>RegulatedAuthorization.region.coding.code</t>
+    <t>RegulatedAuthorization.status.coding.code</t>
   </si>
   <si>
     <t>Symbol in syntax defined by the system</t>
@@ -818,7 +872,7 @@
     <t>./code</t>
   </si>
   <si>
-    <t>RegulatedAuthorization.region.coding.display</t>
+    <t>RegulatedAuthorization.status.coding.display</t>
   </si>
   <si>
     <t>Representation defined by the system</t>
@@ -836,7 +890,7 @@
     <t>CV.displayName</t>
   </si>
   <si>
-    <t>RegulatedAuthorization.region.coding.userSelected</t>
+    <t>RegulatedAuthorization.status.coding.userSelected</t>
   </si>
   <si>
     <t xml:space="preserve">boolean
@@ -859,81 +913,6 @@
   </si>
   <si>
     <t>CD.codingRationale</t>
-  </si>
-  <si>
-    <t>RegulatedAuthorization.region.text</t>
-  </si>
-  <si>
-    <t>Plain text representation of the concept</t>
-  </si>
-  <si>
-    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
-  </si>
-  <si>
-    <t>Very often the text is the same as a displayName of one of the codings.</t>
-  </si>
-  <si>
-    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.text</t>
-  </si>
-  <si>
-    <t>./originalText[mediaType/code="text/plain"]/data</t>
-  </si>
-  <si>
-    <t>RegulatedAuthorization.status</t>
-  </si>
-  <si>
-    <t>Marketing authorisation status</t>
-  </si>
-  <si>
-    <t>EMA IG 2.4</t>
-  </si>
-  <si>
-    <t>The lifecycle status of an artifact.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/publication-status</t>
-  </si>
-  <si>
-    <t>Marketing Authorisation.Authorisation Status</t>
-  </si>
-  <si>
-    <t>RegulatedAuthorization.status.id</t>
-  </si>
-  <si>
-    <t>RegulatedAuthorization.status.extension</t>
-  </si>
-  <si>
-    <t>RegulatedAuthorization.status.coding</t>
-  </si>
-  <si>
-    <t>RegulatedAuthorization.status.coding.id</t>
-  </si>
-  <si>
-    <t>RegulatedAuthorization.status.coding.extension</t>
-  </si>
-  <si>
-    <t>RegulatedAuthorization.status.coding.system</t>
-  </si>
-  <si>
-    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
-  </si>
-  <si>
-    <t>https://spor.ema.europa.eu/v1/lists/100000072049</t>
-  </si>
-  <si>
-    <t>RegulatedAuthorization.status.coding.version</t>
-  </si>
-  <si>
-    <t>RegulatedAuthorization.status.coding.code</t>
-  </si>
-  <si>
-    <t>RegulatedAuthorization.status.coding.display</t>
-  </si>
-  <si>
-    <t>RegulatedAuthorization.status.coding.userSelected</t>
   </si>
   <si>
     <t>RegulatedAuthorization.status.text</t>
@@ -1445,7 +1424,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL62"/>
+  <dimension ref="A1:AL55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1454,7 +1433,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="48.35546875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="48.15234375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
@@ -4248,13 +4227,11 @@
         <v>73</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X26" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="X26" s="2"/>
       <c r="Y26" t="s" s="2">
-        <v>73</v>
+        <v>234</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>73</v>
@@ -4272,7 +4249,7 @@
         <v>73</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>74</v>
@@ -4293,12 +4270,12 @@
         <v>73</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4318,19 +4295,23 @@
         <v>73</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>84</v>
+        <v>184</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>146</v>
+        <v>238</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
+        <v>239</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>241</v>
+      </c>
       <c r="O27" t="s" s="2">
         <v>73</v>
       </c>
@@ -4378,7 +4359,7 @@
         <v>73</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>148</v>
+        <v>242</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>74</v>
@@ -4390,7 +4371,7 @@
         <v>73</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>73</v>
@@ -4399,23 +4380,23 @@
         <v>73</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>149</v>
+        <v>243</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>128</v>
+        <v>73</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>73</v>
@@ -4424,20 +4405,18 @@
         <v>73</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>129</v>
+        <v>166</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>130</v>
+        <v>245</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>73</v>
@@ -4462,57 +4441,57 @@
         <v>73</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>73</v>
+        <v>106</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>73</v>
+        <v>247</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>73</v>
+        <v>248</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>152</v>
+        <v>73</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>153</v>
+        <v>73</v>
       </c>
       <c r="AC28" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>154</v>
+        <v>73</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>155</v>
+        <v>244</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>134</v>
+        <v>94</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>73</v>
+        <v>249</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>149</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4532,23 +4511,19 @@
         <v>73</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>239</v>
+        <v>146</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>242</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>73</v>
       </c>
@@ -4557,7 +4532,7 @@
         <v>73</v>
       </c>
       <c r="R29" t="s" s="2">
-        <v>243</v>
+        <v>73</v>
       </c>
       <c r="S29" t="s" s="2">
         <v>73</v>
@@ -4596,7 +4571,7 @@
         <v>73</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>244</v>
+        <v>148</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>74</v>
@@ -4608,7 +4583,7 @@
         <v>73</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>73</v>
@@ -4617,23 +4592,23 @@
         <v>73</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>245</v>
+        <v>149</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>73</v>
@@ -4642,19 +4617,19 @@
         <v>73</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>184</v>
+        <v>129</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>247</v>
+        <v>130</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>248</v>
+        <v>151</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>249</v>
+        <v>132</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -4692,31 +4667,31 @@
         <v>73</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>73</v>
+        <v>152</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>73</v>
+        <v>153</v>
       </c>
       <c r="AC30" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>73</v>
+        <v>154</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>250</v>
+        <v>155</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>94</v>
+        <v>134</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>73</v>
@@ -4725,7 +4700,7 @@
         <v>73</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>251</v>
+        <v>149</v>
       </c>
     </row>
     <row r="31">
@@ -4741,7 +4716,7 @@
         <v>74</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>73</v>
@@ -4753,17 +4728,19 @@
         <v>83</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>102</v>
+        <v>229</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="L31" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="M31" s="2"/>
+      <c r="M31" t="s" s="2">
+        <v>232</v>
+      </c>
       <c r="N31" t="s" s="2">
-        <v>255</v>
+        <v>233</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>73</v>
@@ -4812,13 +4789,13 @@
         <v>73</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>256</v>
+        <v>235</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>73</v>
@@ -4833,12 +4810,12 @@
         <v>73</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>257</v>
+        <v>236</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4858,21 +4835,19 @@
         <v>73</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>184</v>
+        <v>84</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>259</v>
+        <v>146</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>260</v>
+        <v>147</v>
       </c>
       <c r="M32" s="2"/>
-      <c r="N32" t="s" s="2">
-        <v>261</v>
-      </c>
+      <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>73</v>
       </c>
@@ -4920,7 +4895,7 @@
         <v>73</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>262</v>
+        <v>148</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>74</v>
@@ -4932,7 +4907,7 @@
         <v>73</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>73</v>
@@ -4941,23 +4916,23 @@
         <v>73</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>263</v>
+        <v>149</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>73</v>
@@ -4966,23 +4941,21 @@
         <v>73</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>265</v>
+        <v>129</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>266</v>
+        <v>130</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>267</v>
+        <v>151</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>269</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>73</v>
       </c>
@@ -5018,31 +4991,31 @@
         <v>73</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>73</v>
+        <v>152</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>73</v>
+        <v>153</v>
       </c>
       <c r="AC33" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>73</v>
+        <v>154</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>270</v>
+        <v>155</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>94</v>
+        <v>134</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>73</v>
@@ -5051,12 +5024,12 @@
         <v>73</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>271</v>
+        <v>149</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5079,19 +5052,19 @@
         <v>83</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>184</v>
+        <v>96</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>275</v>
+        <v>259</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>276</v>
+        <v>260</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>73</v>
@@ -5101,7 +5074,7 @@
         <v>73</v>
       </c>
       <c r="R34" t="s" s="2">
-        <v>73</v>
+        <v>261</v>
       </c>
       <c r="S34" t="s" s="2">
         <v>73</v>
@@ -5140,7 +5113,7 @@
         <v>73</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>74</v>
@@ -5161,12 +5134,12 @@
         <v>73</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>278</v>
+        <v>263</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5174,7 +5147,7 @@
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F35" t="s" s="2">
         <v>82</v>
@@ -5189,15 +5162,17 @@
         <v>83</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="M35" s="2"/>
+        <v>266</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>267</v>
+      </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>73</v>
@@ -5222,13 +5197,13 @@
         <v>73</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>106</v>
+        <v>73</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>282</v>
+        <v>73</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>283</v>
+        <v>73</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>73</v>
@@ -5246,7 +5221,7 @@
         <v>73</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>74</v>
@@ -5261,18 +5236,18 @@
         <v>94</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>284</v>
+        <v>73</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>73</v>
+        <v>269</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5292,19 +5267,21 @@
         <v>73</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>146</v>
+        <v>271</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>147</v>
+        <v>272</v>
       </c>
       <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
+      <c r="N36" t="s" s="2">
+        <v>273</v>
+      </c>
       <c r="O36" t="s" s="2">
         <v>73</v>
       </c>
@@ -5352,7 +5329,7 @@
         <v>73</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>148</v>
+        <v>274</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>74</v>
@@ -5364,7 +5341,7 @@
         <v>73</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>73</v>
@@ -5373,23 +5350,23 @@
         <v>73</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>149</v>
+        <v>275</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>128</v>
+        <v>73</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>73</v>
@@ -5398,21 +5375,21 @@
         <v>73</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>129</v>
+        <v>184</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>130</v>
+        <v>277</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N37" s="2"/>
+        <v>278</v>
+      </c>
+      <c r="M37" s="2"/>
+      <c r="N37" t="s" s="2">
+        <v>279</v>
+      </c>
       <c r="O37" t="s" s="2">
         <v>73</v>
       </c>
@@ -5448,31 +5425,31 @@
         <v>73</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>152</v>
+        <v>73</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>153</v>
+        <v>73</v>
       </c>
       <c r="AC37" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>154</v>
+        <v>73</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>155</v>
+        <v>280</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>134</v>
+        <v>94</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>73</v>
@@ -5481,12 +5458,12 @@
         <v>73</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>149</v>
+        <v>281</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5497,7 +5474,7 @@
         <v>74</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>73</v>
@@ -5509,19 +5486,19 @@
         <v>83</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>229</v>
+        <v>283</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>230</v>
+        <v>284</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>231</v>
+        <v>285</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>232</v>
+        <v>286</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>233</v>
+        <v>287</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>73</v>
@@ -5570,13 +5547,13 @@
         <v>73</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>234</v>
+        <v>288</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>73</v>
@@ -5591,12 +5568,12 @@
         <v>73</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>235</v>
+        <v>289</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5616,19 +5593,23 @@
         <v>73</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>84</v>
+        <v>184</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>146</v>
+        <v>238</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
+        <v>239</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>241</v>
+      </c>
       <c r="O39" t="s" s="2">
         <v>73</v>
       </c>
@@ -5676,7 +5657,7 @@
         <v>73</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>148</v>
+        <v>242</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>74</v>
@@ -5688,7 +5669,7 @@
         <v>73</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>73</v>
@@ -5697,23 +5678,23 @@
         <v>73</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>149</v>
+        <v>243</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>128</v>
+        <v>73</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>73</v>
@@ -5722,20 +5703,18 @@
         <v>73</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>129</v>
+        <v>292</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>130</v>
+        <v>293</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="M40" s="2"/>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>73</v>
@@ -5772,45 +5751,45 @@
         <v>73</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>152</v>
+        <v>73</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>153</v>
+        <v>73</v>
       </c>
       <c r="AC40" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>154</v>
+        <v>73</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>155</v>
+        <v>291</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>134</v>
+        <v>94</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>73</v>
+        <v>295</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>149</v>
+        <v>73</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5833,20 +5812,16 @@
         <v>83</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>96</v>
+        <v>192</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>239</v>
+        <v>297</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>242</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>73</v>
       </c>
@@ -5855,7 +5830,7 @@
         <v>73</v>
       </c>
       <c r="R41" t="s" s="2">
-        <v>292</v>
+        <v>73</v>
       </c>
       <c r="S41" t="s" s="2">
         <v>73</v>
@@ -5894,7 +5869,7 @@
         <v>73</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>244</v>
+        <v>296</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>74</v>
@@ -5909,18 +5884,18 @@
         <v>94</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>73</v>
+        <v>299</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>245</v>
+        <v>73</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5943,17 +5918,15 @@
         <v>83</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>184</v>
+        <v>301</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>247</v>
+        <v>302</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>249</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="M42" s="2"/>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>73</v>
@@ -6002,7 +5975,7 @@
         <v>73</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>74</v>
@@ -6017,18 +5990,18 @@
         <v>94</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>73</v>
+        <v>149</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>251</v>
+        <v>73</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6051,18 +6024,16 @@
         <v>83</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>102</v>
+        <v>166</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>253</v>
+        <v>305</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>254</v>
+        <v>306</v>
       </c>
       <c r="M43" s="2"/>
-      <c r="N43" t="s" s="2">
-        <v>255</v>
-      </c>
+      <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>73</v>
       </c>
@@ -6086,13 +6057,13 @@
         <v>73</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>73</v>
+        <v>106</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>73</v>
+        <v>307</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>73</v>
+        <v>308</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>73</v>
@@ -6110,7 +6081,7 @@
         <v>73</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>256</v>
+        <v>304</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>74</v>
@@ -6125,18 +6096,18 @@
         <v>94</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>73</v>
+        <v>149</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>257</v>
+        <v>73</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>295</v>
+        <v>309</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6147,7 +6118,7 @@
         <v>74</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>73</v>
@@ -6159,18 +6130,16 @@
         <v>83</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>259</v>
+        <v>310</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>260</v>
+        <v>311</v>
       </c>
       <c r="M44" s="2"/>
-      <c r="N44" t="s" s="2">
-        <v>261</v>
-      </c>
+      <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>73</v>
       </c>
@@ -6194,13 +6163,13 @@
         <v>73</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>73</v>
+        <v>213</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>73</v>
+        <v>312</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>73</v>
+        <v>313</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>73</v>
@@ -6218,13 +6187,13 @@
         <v>73</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>262</v>
+        <v>309</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>73</v>
@@ -6233,18 +6202,18 @@
         <v>94</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>73</v>
+        <v>314</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>263</v>
+        <v>73</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>296</v>
+        <v>315</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6252,7 +6221,7 @@
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F45" t="s" s="2">
         <v>82</v>
@@ -6267,20 +6236,16 @@
         <v>83</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>265</v>
+        <v>316</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>266</v>
+        <v>317</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>269</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>73</v>
       </c>
@@ -6328,7 +6293,7 @@
         <v>73</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>270</v>
+        <v>315</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>74</v>
@@ -6343,18 +6308,18 @@
         <v>94</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>73</v>
+        <v>319</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>271</v>
+        <v>73</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>297</v>
+        <v>320</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6377,20 +6342,16 @@
         <v>83</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>273</v>
+        <v>321</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>276</v>
-      </c>
+        <v>322</v>
+      </c>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>73</v>
       </c>
@@ -6438,7 +6399,7 @@
         <v>73</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>277</v>
+        <v>320</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>74</v>
@@ -6453,18 +6414,18 @@
         <v>94</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>73</v>
+        <v>323</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>278</v>
+        <v>73</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>298</v>
+        <v>324</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6487,13 +6448,13 @@
         <v>83</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>299</v>
+        <v>325</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>300</v>
+        <v>326</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>301</v>
+        <v>327</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -6544,7 +6505,7 @@
         <v>73</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>298</v>
+        <v>324</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>74</v>
@@ -6556,10 +6517,10 @@
         <v>73</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>94</v>
+        <v>328</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>302</v>
+        <v>329</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>73</v>
@@ -6570,7 +6531,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>303</v>
+        <v>330</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6590,16 +6551,16 @@
         <v>73</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>304</v>
+        <v>146</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>305</v>
+        <v>147</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -6650,7 +6611,7 @@
         <v>73</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>303</v>
+        <v>148</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>74</v>
@@ -6662,32 +6623,32 @@
         <v>73</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>306</v>
+        <v>73</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>73</v>
+        <v>149</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>307</v>
+        <v>331</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>73</v>
@@ -6696,18 +6657,20 @@
         <v>73</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>308</v>
+        <v>129</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>309</v>
+        <v>130</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="M49" s="2"/>
+        <v>151</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>132</v>
+      </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>73</v>
@@ -6756,65 +6719,69 @@
         <v>73</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>307</v>
+        <v>155</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>94</v>
+        <v>134</v>
       </c>
       <c r="AJ49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL49" t="s" s="2">
         <v>149</v>
-      </c>
-      <c r="AK49" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL49" t="s" s="2">
-        <v>73</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>311</v>
+        <v>332</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>73</v>
+        <v>333</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="I50" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>166</v>
+        <v>129</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>312</v>
+        <v>334</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="M50" s="2"/>
-      <c r="N50" s="2"/>
+        <v>335</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="O50" t="s" s="2">
         <v>73</v>
       </c>
@@ -6838,13 +6805,13 @@
         <v>73</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>106</v>
+        <v>73</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>314</v>
+        <v>73</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>315</v>
+        <v>73</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>73</v>
@@ -6862,33 +6829,33 @@
         <v>73</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>311</v>
+        <v>336</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>94</v>
+        <v>134</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>149</v>
+        <v>73</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>73</v>
+        <v>126</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>316</v>
+        <v>337</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -6899,7 +6866,7 @@
         <v>74</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>73</v>
@@ -6911,13 +6878,13 @@
         <v>83</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>317</v>
+        <v>338</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>318</v>
+        <v>339</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -6944,13 +6911,13 @@
         <v>73</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>213</v>
+        <v>73</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>319</v>
+        <v>73</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>320</v>
+        <v>73</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>73</v>
@@ -6968,13 +6935,13 @@
         <v>73</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>316</v>
+        <v>337</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>73</v>
@@ -6983,7 +6950,7 @@
         <v>94</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>321</v>
+        <v>340</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>73</v>
@@ -6994,7 +6961,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>322</v>
+        <v>341</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7002,7 +6969,7 @@
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F52" t="s" s="2">
         <v>82</v>
@@ -7017,13 +6984,13 @@
         <v>83</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>323</v>
+        <v>166</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>324</v>
+        <v>342</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>325</v>
+        <v>343</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -7050,13 +7017,13 @@
         <v>73</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>73</v>
+        <v>213</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>73</v>
+        <v>344</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>73</v>
+        <v>345</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>73</v>
@@ -7074,7 +7041,7 @@
         <v>73</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>322</v>
+        <v>341</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>74</v>
@@ -7089,7 +7056,7 @@
         <v>94</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>326</v>
+        <v>346</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>73</v>
@@ -7100,7 +7067,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>327</v>
+        <v>347</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7123,13 +7090,13 @@
         <v>83</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>198</v>
+        <v>166</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>328</v>
+        <v>348</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>329</v>
+        <v>349</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -7156,13 +7123,13 @@
         <v>73</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>73</v>
+        <v>106</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>73</v>
+        <v>247</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>73</v>
+        <v>248</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>73</v>
@@ -7180,7 +7147,7 @@
         <v>73</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>327</v>
+        <v>347</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>74</v>
@@ -7195,7 +7162,7 @@
         <v>94</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>330</v>
+        <v>149</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>73</v>
@@ -7206,7 +7173,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>331</v>
+        <v>350</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7229,13 +7196,13 @@
         <v>83</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>332</v>
+        <v>351</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>333</v>
+        <v>352</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>334</v>
+        <v>353</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -7286,7 +7253,7 @@
         <v>73</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>331</v>
+        <v>350</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>74</v>
@@ -7298,10 +7265,10 @@
         <v>73</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>335</v>
+        <v>94</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>336</v>
+        <v>354</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>73</v>
@@ -7312,7 +7279,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>337</v>
+        <v>355</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7323,7 +7290,7 @@
         <v>74</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>73</v>
@@ -7332,16 +7299,16 @@
         <v>73</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>184</v>
+        <v>73</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>146</v>
+        <v>356</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>147</v>
+        <v>357</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -7392,775 +7359,27 @@
         <v>73</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>148</v>
+        <v>355</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>73</v>
+        <v>358</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="B56" s="2"/>
-      <c r="C56" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="D56" s="2"/>
-      <c r="E56" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F56" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G56" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H56" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I56" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J56" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="K56" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N56" s="2"/>
-      <c r="O56" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P56" s="2"/>
-      <c r="Q56" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R56" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S56" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T56" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U56" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V56" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W56" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X56" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y56" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z56" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA56" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB56" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC56" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD56" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE56" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="AF56" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG56" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH56" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI56" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AJ56" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK56" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL56" t="s" s="2">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="B57" s="2"/>
-      <c r="C57" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="D57" s="2"/>
-      <c r="E57" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F57" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G57" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H57" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I57" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J57" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="K57" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O57" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P57" s="2"/>
-      <c r="Q57" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R57" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S57" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T57" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U57" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V57" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W57" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X57" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y57" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z57" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA57" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB57" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC57" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD57" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE57" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="AF57" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG57" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH57" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI57" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AJ57" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK57" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL57" t="s" s="2">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="B58" s="2"/>
-      <c r="C58" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D58" s="2"/>
-      <c r="E58" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F58" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G58" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H58" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I58" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J58" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="K58" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="M58" s="2"/>
-      <c r="N58" s="2"/>
-      <c r="O58" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P58" s="2"/>
-      <c r="Q58" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R58" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S58" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T58" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U58" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V58" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W58" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X58" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y58" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z58" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA58" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB58" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC58" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD58" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE58" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="AF58" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG58" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH58" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI58" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ58" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="AK58" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL58" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="B59" s="2"/>
-      <c r="C59" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D59" s="2"/>
-      <c r="E59" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F59" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G59" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H59" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I59" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J59" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="K59" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="M59" s="2"/>
-      <c r="N59" s="2"/>
-      <c r="O59" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P59" s="2"/>
-      <c r="Q59" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R59" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S59" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T59" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U59" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V59" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W59" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="X59" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="Y59" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="Z59" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA59" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB59" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC59" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD59" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE59" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="AF59" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG59" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH59" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI59" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ59" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="AK59" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL59" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="B60" s="2"/>
-      <c r="C60" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D60" s="2"/>
-      <c r="E60" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F60" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G60" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H60" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I60" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J60" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="K60" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="M60" s="2"/>
-      <c r="N60" s="2"/>
-      <c r="O60" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P60" s="2"/>
-      <c r="Q60" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R60" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S60" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T60" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U60" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V60" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W60" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="X60" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="Y60" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="Z60" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA60" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB60" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC60" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD60" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE60" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="AF60" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG60" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH60" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI60" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ60" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="AK60" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL60" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="B61" s="2"/>
-      <c r="C61" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D61" s="2"/>
-      <c r="E61" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F61" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G61" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H61" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I61" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J61" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="K61" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="M61" s="2"/>
-      <c r="N61" s="2"/>
-      <c r="O61" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P61" s="2"/>
-      <c r="Q61" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R61" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S61" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T61" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U61" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V61" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W61" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X61" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y61" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z61" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA61" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB61" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC61" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD61" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE61" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="AF61" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG61" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH61" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI61" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ61" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="AK61" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL61" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="B62" s="2"/>
-      <c r="C62" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D62" s="2"/>
-      <c r="E62" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F62" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G62" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H62" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I62" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J62" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="K62" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="M62" s="2"/>
-      <c r="N62" s="2"/>
-      <c r="O62" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P62" s="2"/>
-      <c r="Q62" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R62" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S62" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T62" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U62" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V62" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W62" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X62" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y62" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z62" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA62" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB62" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC62" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD62" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE62" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="AF62" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG62" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH62" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI62" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ62" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="AK62" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL62" t="s" s="2">
         <v>73</v>
       </c>
     </row>

--- a/StructureDefinition-PPLRegulatedAuthorization.xlsx
+++ b/StructureDefinition-PPLRegulatedAuthorization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-20T17:48:06+00:00</t>
+    <t>2022-11-20T20:12:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLRegulatedAuthorization.xlsx
+++ b/StructureDefinition-PPLRegulatedAuthorization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-20T20:12:04+00:00</t>
+    <t>2022-11-20T20:23:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLRegulatedAuthorization.xlsx
+++ b/StructureDefinition-PPLRegulatedAuthorization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-20T20:23:35+00:00</t>
+    <t>2022-11-21T10:47:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLRegulatedAuthorization.xlsx
+++ b/StructureDefinition-PPLRegulatedAuthorization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-21T10:47:26+00:00</t>
+    <t>2022-11-22T13:07:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PPLRegulatedAuthorization.xlsx
+++ b/StructureDefinition-PPLRegulatedAuthorization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-22T20:42:27+00:00</t>
+    <t>2022-11-24T22:13:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
